--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/食品类农村居民消费价格指数(上年同期=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/食品类农村居民消费价格指数(上年同期=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,699 +478,699 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>100.8</v>
-      </c>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>83</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>106.8</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.7</v>
+        <v>97.3</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>87.8</v>
+        <v>88.2</v>
       </c>
       <c r="E3" t="n">
-        <v>99.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>83.90000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>97.3</v>
+        <v>97.8</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>106.8</v>
+        <v>132.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>88.40000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="E4" t="n">
-        <v>99.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="F4" t="n">
-        <v>84.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="G4" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>106.7</v>
+        <v>130.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>99.40000000000001</v>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>78.8</v>
+      </c>
       <c r="G5" t="n">
-        <v>96.8</v>
+        <v>97.3</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>123.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.3</v>
+        <v>100.6</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>88.2</v>
+        <v>87.3</v>
       </c>
       <c r="E6" t="n">
-        <v>95.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="F6" t="n">
-        <v>79.90000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="G6" t="n">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>132.3</v>
+        <v>117.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>87.8</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>96.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>78.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>97.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>130.2</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.40000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>87.59999999999999</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>97.5</v>
+        <v>100.3</v>
       </c>
       <c r="F8" t="n">
-        <v>78.8</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>123.3</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.6</v>
+        <v>101.3</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>87.3</v>
+        <v>87</v>
       </c>
       <c r="E9" t="n">
-        <v>98.8</v>
+        <v>100.2</v>
       </c>
       <c r="F9" t="n">
-        <v>79.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>97.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>117.9</v>
+        <v>110.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>87.09999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F10" t="n">
-        <v>79.59999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="G10" t="n">
         <v>97.3</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>114.6</v>
+        <v>108.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.3</v>
+        <v>100.8</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>86.90000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>100.3</v>
+        <v>99.5</v>
       </c>
       <c r="F11" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G11" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>111.7</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.3</v>
+        <v>100.7</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>87</v>
+        <v>87.8</v>
       </c>
       <c r="E12" t="n">
-        <v>100.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>81.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>110.1</v>
+        <v>106.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>87.09999999999999</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>82.2</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>108.6</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.90000000000001</v>
+        <v>102.7071</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>99.59999999999999</v>
+        <v>96.9948</v>
       </c>
       <c r="E14" t="n">
-        <v>101.5</v>
+        <v>101.889</v>
       </c>
       <c r="F14" t="n">
-        <v>104.9</v>
+        <v>96.0955</v>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>99.5479</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>102.8</v>
+        <v>94.9194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>97.8</v>
+        <v>100.8</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>99.8</v>
+        <v>96.8</v>
       </c>
       <c r="E15" t="n">
-        <v>101.5</v>
+        <v>100.8</v>
       </c>
       <c r="F15" t="n">
-        <v>105.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>99.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>101.5</v>
+        <v>87.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.8</v>
+        <v>100.5</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>99.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>101.4</v>
+        <v>101</v>
       </c>
       <c r="F16" t="n">
-        <v>105.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>100.9</v>
+        <v>89.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.7071</v>
+        <v>100</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>96.9948</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>101.889</v>
+        <v>101.3</v>
       </c>
       <c r="F17" t="n">
-        <v>96.0955</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>99.5479</v>
+        <v>99.2</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>94.9194</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>96.8</v>
+        <v>98</v>
       </c>
       <c r="E18" t="n">
-        <v>100.8</v>
+        <v>101.6</v>
       </c>
       <c r="F18" t="n">
-        <v>95.90000000000001</v>
+        <v>100.5</v>
       </c>
       <c r="G18" t="n">
-        <v>98.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>87.3</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>97.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>101</v>
+        <v>101.7</v>
       </c>
       <c r="F19" t="n">
-        <v>97.40000000000001</v>
+        <v>101.7</v>
       </c>
       <c r="G19" t="n">
-        <v>98.7</v>
+        <v>99.7</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>89.3</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>97.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="E20" t="n">
-        <v>101.3</v>
+        <v>101.7</v>
       </c>
       <c r="F20" t="n">
-        <v>99.09999999999999</v>
+        <v>103.2</v>
       </c>
       <c r="G20" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>93</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.09999999999999</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>98</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>101.6</v>
       </c>
       <c r="F21" t="n">
-        <v>100.5</v>
+        <v>103.5</v>
       </c>
       <c r="G21" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>95.90000000000001</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.40000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>98.40000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="F22" t="n">
-        <v>101.7</v>
+        <v>104.2</v>
       </c>
       <c r="G22" t="n">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>97.90000000000001</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>98</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>98.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="F23" t="n">
-        <v>103.2</v>
+        <v>104.9</v>
       </c>
       <c r="G23" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>100.3</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>99.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="E24" t="n">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="F24" t="n">
-        <v>103.5</v>
+        <v>105.2</v>
       </c>
       <c r="G24" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="E25" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="F25" t="n">
-        <v>104.2</v>
+        <v>105.3</v>
       </c>
       <c r="G25" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>102.5</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>95.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="E26" t="n">
-        <v>99.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="F26" t="n">
-        <v>103.6</v>
+        <v>108.7</v>
       </c>
       <c r="G26" t="n">
-        <v>99.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>97.3</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>95.40000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="F27" t="n">
-        <v>103.2</v>
+        <v>111</v>
       </c>
       <c r="G27" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>98.3</v>
+        <v>96.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1178,6733 +1178,6733 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>98.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>100.4</v>
       </c>
       <c r="F28" t="n">
-        <v>102.9</v>
+        <v>110.2</v>
       </c>
       <c r="G28" t="n">
         <v>99.3</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>99.09999999999999</v>
+        <v>93.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>98.8</v>
+        <v>99.3</v>
       </c>
       <c r="E29" t="n">
-        <v>98.5</v>
+        <v>100.2</v>
       </c>
       <c r="F29" t="n">
-        <v>108.7</v>
+        <v>109</v>
       </c>
       <c r="G29" t="n">
-        <v>98.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>94.8</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="E30" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="F30" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G30" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>96.2</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="F31" t="n">
-        <v>110.2</v>
+        <v>107.3</v>
       </c>
       <c r="G31" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>93.5</v>
+        <v>93.59999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>95.09999999999999</v>
+        <v>95</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="F32" t="n">
-        <v>109</v>
+        <v>106.1</v>
       </c>
       <c r="G32" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>91.7</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>94.90000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>99.3</v>
+        <v>98.8</v>
       </c>
       <c r="E33" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="F33" t="n">
-        <v>108</v>
+        <v>105.3</v>
       </c>
       <c r="G33" t="n">
         <v>99</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>92.5</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>99.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F34" t="n">
-        <v>107.3</v>
+        <v>104.5</v>
       </c>
       <c r="G34" t="n">
         <v>99</v>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>99.40000000000001</v>
+      </c>
       <c r="I34" t="n">
-        <v>93.59999999999999</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>98.90000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>106.1</v>
+        <v>103.6</v>
       </c>
       <c r="G35" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>93.8</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>98.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>105.3</v>
+        <v>103.2</v>
       </c>
       <c r="G36" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>94.8</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F37" t="n">
-        <v>104.5</v>
+        <v>102.9</v>
       </c>
       <c r="G37" t="n">
-        <v>99</v>
-      </c>
-      <c r="H37" t="n">
-        <v>99.40000000000001</v>
-      </c>
+        <v>99.3</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>95.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.3</v>
+        <v>98.42</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>100.1</v>
+        <v>99.29000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>102.5</v>
+        <v>100.99</v>
       </c>
       <c r="F38" t="n">
-        <v>96.2</v>
+        <v>96.8</v>
       </c>
       <c r="G38" t="n">
-        <v>102.2</v>
+        <v>101.66</v>
       </c>
       <c r="H38" t="n">
-        <v>102.3</v>
+        <v>101.7</v>
       </c>
       <c r="I38" t="n">
-        <v>117.5</v>
+        <v>121.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.5989</v>
+        <v>97.7255</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>101.1221</v>
+        <v>99.2153</v>
       </c>
       <c r="E39" t="n">
-        <v>103.469</v>
+        <v>100.2177</v>
       </c>
       <c r="F39" t="n">
-        <v>97.7111</v>
+        <v>94.9697</v>
       </c>
       <c r="G39" t="n">
-        <v>102.831</v>
+        <v>101.3817</v>
       </c>
       <c r="H39" t="n">
-        <v>102.4</v>
+        <v>98.8</v>
       </c>
       <c r="I39" t="n">
-        <v>117.7182</v>
+        <v>123.9659</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.9158</v>
+        <v>97.87439999999999</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>102.2113</v>
+        <v>99.0853</v>
       </c>
       <c r="E40" t="n">
-        <v>104.2447</v>
+        <v>99.883</v>
       </c>
       <c r="F40" t="n">
-        <v>98.9829</v>
+        <v>94.8202</v>
       </c>
       <c r="G40" t="n">
-        <v>103.3942</v>
+        <v>101.6</v>
       </c>
       <c r="H40" t="n">
-        <v>102.5</v>
+        <v>96.2</v>
       </c>
       <c r="I40" t="n">
-        <v>118.0146</v>
+        <v>131.3513</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.42</v>
+        <v>98.1703</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>99.29000000000001</v>
+        <v>99.0813</v>
       </c>
       <c r="E41" t="n">
-        <v>100.99</v>
+        <v>99.93219999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>96.8</v>
+        <v>94.77930000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>101.66</v>
+        <v>101.7512</v>
       </c>
       <c r="H41" t="n">
-        <v>101.7</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>121.9</v>
+        <v>133.8584</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>97.7255</v>
+        <v>98.3416</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>99.2153</v>
+        <v>99.27930000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>100.2177</v>
+        <v>100.0535</v>
       </c>
       <c r="F42" t="n">
-        <v>94.9697</v>
+        <v>94.679</v>
       </c>
       <c r="G42" t="n">
-        <v>101.3817</v>
+        <v>101.7128</v>
       </c>
       <c r="H42" t="n">
-        <v>98.8</v>
+        <v>97</v>
       </c>
       <c r="I42" t="n">
-        <v>123.9659</v>
+        <v>130.2192</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.87439999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>99.0853</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>99.883</v>
+        <v>100.3</v>
       </c>
       <c r="F43" t="n">
-        <v>94.8202</v>
+        <v>94</v>
       </c>
       <c r="G43" t="n">
         <v>101.6</v>
       </c>
       <c r="H43" t="n">
-        <v>96.2</v>
+        <v>98.5</v>
       </c>
       <c r="I43" t="n">
-        <v>131.3513</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>98.1703</v>
+        <v>98.645</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>99.0813</v>
+        <v>99.53619999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>99.93219999999999</v>
+        <v>100.7561</v>
       </c>
       <c r="F44" t="n">
-        <v>94.77930000000001</v>
+        <v>94.23869999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>101.7512</v>
+        <v>101.5642</v>
       </c>
       <c r="H44" t="n">
-        <v>95.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I44" t="n">
-        <v>133.8584</v>
+        <v>121.7902</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.3416</v>
+        <v>98.85809999999999</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>99.27930000000001</v>
+        <v>99.6099</v>
       </c>
       <c r="E45" t="n">
-        <v>100.0535</v>
+        <v>101.2612</v>
       </c>
       <c r="F45" t="n">
-        <v>94.679</v>
+        <v>94.5341</v>
       </c>
       <c r="G45" t="n">
-        <v>101.7128</v>
+        <v>101.7</v>
       </c>
       <c r="H45" t="n">
-        <v>97</v>
+        <v>100.9</v>
       </c>
       <c r="I45" t="n">
-        <v>130.2192</v>
+        <v>119.3125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.5</v>
+        <v>99.0224</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7473</v>
       </c>
       <c r="E46" t="n">
-        <v>100.3</v>
+        <v>101.8085</v>
       </c>
       <c r="F46" t="n">
-        <v>94</v>
+        <v>95.2054</v>
       </c>
       <c r="G46" t="n">
-        <v>101.6</v>
+        <v>101.8383</v>
       </c>
       <c r="H46" t="n">
-        <v>98.5</v>
+        <v>101.9</v>
       </c>
       <c r="I46" t="n">
-        <v>125.5</v>
+        <v>117.9652</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>98.645</v>
+        <v>99.3</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>99.53619999999999</v>
+        <v>100.1</v>
       </c>
       <c r="E47" t="n">
-        <v>100.7561</v>
+        <v>102.5</v>
       </c>
       <c r="F47" t="n">
-        <v>94.23869999999999</v>
+        <v>96.2</v>
       </c>
       <c r="G47" t="n">
-        <v>101.5642</v>
+        <v>102.2</v>
       </c>
       <c r="H47" t="n">
-        <v>99.40000000000001</v>
+        <v>102.3</v>
       </c>
       <c r="I47" t="n">
-        <v>121.7902</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>98.85809999999999</v>
+        <v>99.5989</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>99.6099</v>
+        <v>101.1221</v>
       </c>
       <c r="E48" t="n">
-        <v>101.2612</v>
+        <v>103.469</v>
       </c>
       <c r="F48" t="n">
-        <v>94.5341</v>
+        <v>97.7111</v>
       </c>
       <c r="G48" t="n">
-        <v>101.7</v>
+        <v>102.831</v>
       </c>
       <c r="H48" t="n">
-        <v>100.9</v>
+        <v>102.4</v>
       </c>
       <c r="I48" t="n">
-        <v>119.3125</v>
+        <v>117.7182</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.0224</v>
+        <v>99.9158</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>99.7473</v>
+        <v>102.2113</v>
       </c>
       <c r="E49" t="n">
-        <v>101.8085</v>
+        <v>104.2447</v>
       </c>
       <c r="F49" t="n">
-        <v>95.2054</v>
+        <v>98.9829</v>
       </c>
       <c r="G49" t="n">
-        <v>101.8383</v>
+        <v>103.3942</v>
       </c>
       <c r="H49" t="n">
-        <v>101.9</v>
+        <v>102.5</v>
       </c>
       <c r="I49" t="n">
-        <v>117.9652</v>
+        <v>118.0146</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>115.0644</v>
+        <v>107.025</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>129.8156</v>
+        <v>115.5511</v>
       </c>
       <c r="E50" t="n">
-        <v>118.1846</v>
+        <v>114.841</v>
       </c>
       <c r="F50" t="n">
-        <v>121.6851</v>
+        <v>114.7657</v>
       </c>
       <c r="G50" t="n">
-        <v>112.5811</v>
+        <v>109.67</v>
       </c>
       <c r="H50" t="n">
-        <v>102.7</v>
+        <v>105.2</v>
       </c>
       <c r="I50" t="n">
-        <v>98.0134</v>
+        <v>102.7935</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>114.8995</v>
+        <v>106.855</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>128.8596</v>
+        <v>117.2304</v>
       </c>
       <c r="E51" t="n">
-        <v>117.6146</v>
+        <v>112.7979</v>
       </c>
       <c r="F51" t="n">
-        <v>120.4898</v>
+        <v>114.1179</v>
       </c>
       <c r="G51" t="n">
-        <v>112.022</v>
+        <v>108.7101</v>
       </c>
       <c r="H51" t="n">
-        <v>102.6</v>
+        <v>102.2</v>
       </c>
       <c r="I51" t="n">
-        <v>96.7187</v>
+        <v>97.556</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>114.6663</v>
+        <v>108.6537</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>127.6869</v>
+        <v>122.0074</v>
       </c>
       <c r="E52" t="n">
-        <v>117.0583</v>
+        <v>113.321</v>
       </c>
       <c r="F52" t="n">
-        <v>119.6225</v>
+        <v>114.8286</v>
       </c>
       <c r="G52" t="n">
-        <v>111.4584</v>
+        <v>109.2484</v>
       </c>
       <c r="H52" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="I52" t="n">
-        <v>95.57089999999999</v>
+        <v>93.5286</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>107.025</v>
+        <v>110.6244</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>115.5511</v>
+        <v>125.3086</v>
       </c>
       <c r="E53" t="n">
-        <v>114.841</v>
+        <v>114.4178</v>
       </c>
       <c r="F53" t="n">
-        <v>114.7657</v>
+        <v>116.0934</v>
       </c>
       <c r="G53" t="n">
-        <v>109.67</v>
+        <v>110.0496</v>
       </c>
       <c r="H53" t="n">
-        <v>105.2</v>
+        <v>104.4</v>
       </c>
       <c r="I53" t="n">
-        <v>102.7935</v>
+        <v>91.5204</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>106.855</v>
+        <v>112.2193</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>117.2304</v>
+        <v>126.9024</v>
       </c>
       <c r="E54" t="n">
-        <v>112.7979</v>
+        <v>115.3071</v>
       </c>
       <c r="F54" t="n">
-        <v>114.1179</v>
+        <v>116.6857</v>
       </c>
       <c r="G54" t="n">
-        <v>108.7101</v>
+        <v>110.7087</v>
       </c>
       <c r="H54" t="n">
-        <v>102.2</v>
+        <v>104.8</v>
       </c>
       <c r="I54" t="n">
-        <v>97.556</v>
+        <v>92.1769</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>108.6537</v>
+        <v>113.4871</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>122.0074</v>
+        <v>127.9975</v>
       </c>
       <c r="E55" t="n">
-        <v>113.321</v>
+        <v>116.214</v>
       </c>
       <c r="F55" t="n">
-        <v>114.8286</v>
+        <v>118.4177</v>
       </c>
       <c r="G55" t="n">
-        <v>109.2484</v>
+        <v>111.3799</v>
       </c>
       <c r="H55" t="n">
-        <v>102.3</v>
+        <v>103.7</v>
       </c>
       <c r="I55" t="n">
-        <v>93.5286</v>
+        <v>94.4195</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>110.6244</v>
+        <v>114.2604</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>125.3086</v>
+        <v>128.7901</v>
       </c>
       <c r="E56" t="n">
-        <v>114.4178</v>
+        <v>117.0136</v>
       </c>
       <c r="F56" t="n">
-        <v>116.0934</v>
+        <v>119.9521</v>
       </c>
       <c r="G56" t="n">
-        <v>110.0496</v>
+        <v>111.9812</v>
       </c>
       <c r="H56" t="n">
-        <v>104.4</v>
+        <v>103.5</v>
       </c>
       <c r="I56" t="n">
-        <v>91.5204</v>
+        <v>96.78440000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>112.2193</v>
+        <v>114.6531</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>126.9024</v>
+        <v>129.3664</v>
       </c>
       <c r="E57" t="n">
-        <v>115.3071</v>
+        <v>117.7398</v>
       </c>
       <c r="F57" t="n">
-        <v>116.6857</v>
+        <v>121.0092</v>
       </c>
       <c r="G57" t="n">
-        <v>110.7087</v>
+        <v>112.4245</v>
       </c>
       <c r="H57" t="n">
-        <v>104.8</v>
+        <v>103.1</v>
       </c>
       <c r="I57" t="n">
-        <v>92.1769</v>
+        <v>98.2009</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>113.4871</v>
+        <v>114.9652</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>127.9975</v>
+        <v>129.8069</v>
       </c>
       <c r="E58" t="n">
-        <v>116.214</v>
+        <v>118.1659</v>
       </c>
       <c r="F58" t="n">
-        <v>118.4177</v>
+        <v>121.8425</v>
       </c>
       <c r="G58" t="n">
-        <v>111.3799</v>
+        <v>112.6922</v>
       </c>
       <c r="H58" t="n">
-        <v>103.7</v>
+        <v>102.7</v>
       </c>
       <c r="I58" t="n">
-        <v>94.4195</v>
+        <v>98.84010000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>114.2604</v>
+        <v>115.0644</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>128.7901</v>
+        <v>129.8156</v>
       </c>
       <c r="E59" t="n">
-        <v>117.0136</v>
+        <v>118.1846</v>
       </c>
       <c r="F59" t="n">
-        <v>119.9521</v>
+        <v>121.6851</v>
       </c>
       <c r="G59" t="n">
-        <v>111.9812</v>
+        <v>112.5811</v>
       </c>
       <c r="H59" t="n">
-        <v>103.5</v>
+        <v>102.7</v>
       </c>
       <c r="I59" t="n">
-        <v>96.78440000000001</v>
+        <v>98.0134</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>114.6531</v>
+        <v>114.8995</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>129.3664</v>
+        <v>128.8596</v>
       </c>
       <c r="E60" t="n">
-        <v>117.7398</v>
+        <v>117.6146</v>
       </c>
       <c r="F60" t="n">
-        <v>121.0092</v>
+        <v>120.4898</v>
       </c>
       <c r="G60" t="n">
-        <v>112.4245</v>
+        <v>112.022</v>
       </c>
       <c r="H60" t="n">
-        <v>103.1</v>
+        <v>102.6</v>
       </c>
       <c r="I60" t="n">
-        <v>98.2009</v>
+        <v>96.7187</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>114.9652</v>
+        <v>114.6663</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>129.8069</v>
+        <v>127.6869</v>
       </c>
       <c r="E61" t="n">
-        <v>118.1659</v>
+        <v>117.0583</v>
       </c>
       <c r="F61" t="n">
-        <v>121.8425</v>
+        <v>119.6225</v>
       </c>
       <c r="G61" t="n">
-        <v>112.6922</v>
+        <v>111.4584</v>
       </c>
       <c r="H61" t="n">
-        <v>102.7</v>
+        <v>102.4</v>
       </c>
       <c r="I61" t="n">
-        <v>98.84010000000001</v>
+        <v>95.57089999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>105.6054</v>
+        <v>110.6794</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>101.5695</v>
+        <v>114.3545</v>
       </c>
       <c r="E62" t="n">
-        <v>105.0729</v>
+        <v>109.5765</v>
       </c>
       <c r="F62" t="n">
-        <v>107.1256</v>
+        <v>110.9312</v>
       </c>
       <c r="G62" t="n">
-        <v>102.7876</v>
+        <v>104.6649</v>
       </c>
       <c r="H62" t="n">
-        <v>96.94199999999999</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>105.8119</v>
+        <v>87.7017</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>105.5513</v>
+        <v>113.4645</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>101.4036</v>
+        <v>112.826</v>
       </c>
       <c r="E63" t="n">
-        <v>103.9848</v>
+        <v>112.6954</v>
       </c>
       <c r="F63" t="n">
-        <v>106.3383</v>
+        <v>113.775</v>
       </c>
       <c r="G63" t="n">
-        <v>102.577</v>
+        <v>106.6473</v>
       </c>
       <c r="H63" t="n">
-        <v>98.23260000000001</v>
+        <v>95.3</v>
       </c>
       <c r="I63" t="n">
-        <v>107.1567</v>
+        <v>98.1073</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>105.5011</v>
+        <v>112.6645</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>101.3165</v>
+        <v>108.6247</v>
       </c>
       <c r="E64" t="n">
-        <v>103.1032</v>
+        <v>112.8091</v>
       </c>
       <c r="F64" t="n">
-        <v>105.3992</v>
+        <v>113.2699</v>
       </c>
       <c r="G64" t="n">
-        <v>102.4541</v>
+        <v>106.2984</v>
       </c>
       <c r="H64" t="n">
-        <v>99.5153</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>108.6921</v>
+        <v>101.3676</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>110.6794</v>
+        <v>110.9466</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>114.3545</v>
+        <v>105.8083</v>
       </c>
       <c r="E65" t="n">
-        <v>109.5765</v>
+        <v>111.9001</v>
       </c>
       <c r="F65" t="n">
-        <v>110.9312</v>
+        <v>111.9617</v>
       </c>
       <c r="G65" t="n">
-        <v>104.6649</v>
+        <v>105.4327</v>
       </c>
       <c r="H65" t="n">
-        <v>92.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="I65" t="n">
-        <v>87.7017</v>
+        <v>102.184</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>113.4645</v>
+        <v>109.2302</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>112.826</v>
+        <v>104.2628</v>
       </c>
       <c r="E66" t="n">
-        <v>112.6954</v>
+        <v>111.063</v>
       </c>
       <c r="F66" t="n">
-        <v>113.775</v>
+        <v>111.9291</v>
       </c>
       <c r="G66" t="n">
-        <v>106.6473</v>
+        <v>104.888</v>
       </c>
       <c r="H66" t="n">
-        <v>95.3</v>
+        <v>91.3</v>
       </c>
       <c r="I66" t="n">
-        <v>98.1073</v>
+        <v>103.458</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>112.6645</v>
+        <v>107.6772</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>108.6247</v>
+        <v>103.3141</v>
       </c>
       <c r="E67" t="n">
-        <v>112.8091</v>
+        <v>110.0643</v>
       </c>
       <c r="F67" t="n">
-        <v>113.2699</v>
+        <v>111.4608</v>
       </c>
       <c r="G67" t="n">
-        <v>106.2984</v>
+        <v>104.4255</v>
       </c>
       <c r="H67" t="n">
-        <v>94.59999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="I67" t="n">
-        <v>101.3676</v>
+        <v>104.1263</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>110.9466</v>
+        <v>106.7026</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>105.8083</v>
+        <v>102.6567</v>
       </c>
       <c r="E68" t="n">
-        <v>111.9001</v>
+        <v>108.8478</v>
       </c>
       <c r="F68" t="n">
-        <v>111.9617</v>
+        <v>110.7334</v>
       </c>
       <c r="G68" t="n">
-        <v>105.4327</v>
+        <v>104.0474</v>
       </c>
       <c r="H68" t="n">
-        <v>92.3</v>
+        <v>93.8</v>
       </c>
       <c r="I68" t="n">
-        <v>102.184</v>
+        <v>105.364</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>109.2302</v>
+        <v>106.131</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>104.2628</v>
+        <v>102.2047</v>
       </c>
       <c r="E69" t="n">
-        <v>111.063</v>
+        <v>107.4885</v>
       </c>
       <c r="F69" t="n">
-        <v>111.9291</v>
+        <v>109.5845</v>
       </c>
       <c r="G69" t="n">
-        <v>104.888</v>
+        <v>103.5315</v>
       </c>
       <c r="H69" t="n">
-        <v>91.3</v>
+        <v>94.57040000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>103.458</v>
+        <v>105.1422</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>107.6772</v>
+        <v>105.7929</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>103.3141</v>
+        <v>101.8375</v>
       </c>
       <c r="E70" t="n">
-        <v>110.0643</v>
+        <v>106.2235</v>
       </c>
       <c r="F70" t="n">
-        <v>111.4608</v>
+        <v>108.1876</v>
       </c>
       <c r="G70" t="n">
-        <v>104.4255</v>
+        <v>103.0605</v>
       </c>
       <c r="H70" t="n">
-        <v>92.2</v>
+        <v>95.7034</v>
       </c>
       <c r="I70" t="n">
-        <v>104.1263</v>
+        <v>104.6213</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>106.7026</v>
+        <v>105.6054</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>102.6567</v>
+        <v>101.5695</v>
       </c>
       <c r="E71" t="n">
-        <v>108.8478</v>
+        <v>105.0729</v>
       </c>
       <c r="F71" t="n">
-        <v>110.7334</v>
+        <v>107.1256</v>
       </c>
       <c r="G71" t="n">
-        <v>104.0474</v>
+        <v>102.7876</v>
       </c>
       <c r="H71" t="n">
-        <v>93.8</v>
+        <v>96.94199999999999</v>
       </c>
       <c r="I71" t="n">
-        <v>105.364</v>
+        <v>105.8119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>106.131</v>
+        <v>105.5513</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>102.2047</v>
+        <v>101.4036</v>
       </c>
       <c r="E72" t="n">
-        <v>107.4885</v>
+        <v>103.9848</v>
       </c>
       <c r="F72" t="n">
-        <v>109.5845</v>
+        <v>106.3383</v>
       </c>
       <c r="G72" t="n">
-        <v>103.5315</v>
+        <v>102.577</v>
       </c>
       <c r="H72" t="n">
-        <v>94.57040000000001</v>
+        <v>98.23260000000001</v>
       </c>
       <c r="I72" t="n">
-        <v>105.1422</v>
+        <v>107.1567</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>105.7929</v>
+        <v>105.5011</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>101.8375</v>
+        <v>101.3165</v>
       </c>
       <c r="E73" t="n">
-        <v>106.2235</v>
+        <v>103.1032</v>
       </c>
       <c r="F73" t="n">
-        <v>108.1876</v>
+        <v>105.3992</v>
       </c>
       <c r="G73" t="n">
-        <v>103.0605</v>
+        <v>102.4541</v>
       </c>
       <c r="H73" t="n">
-        <v>95.7034</v>
+        <v>99.5153</v>
       </c>
       <c r="I73" t="n">
-        <v>104.6213</v>
+        <v>108.6921</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>100.31337249</v>
+        <v>103.00881948</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>102.21034786</v>
+        <v>100.95796695</v>
       </c>
       <c r="E74" t="n">
-        <v>94.32201229</v>
+        <v>95.04511431</v>
       </c>
       <c r="F74" t="n">
-        <v>92.94467702</v>
+        <v>94.12956106</v>
       </c>
       <c r="G74" t="n">
-        <v>101.34608975</v>
+        <v>102.61965466</v>
       </c>
       <c r="H74" t="n">
-        <v>129.11187462</v>
+        <v>121.67122491</v>
       </c>
       <c r="I74" t="n">
-        <v>110.40953596</v>
+        <v>136.13698519</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>100.44938732</v>
+        <v>100.59794536</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>102.45795992</v>
+        <v>100.93178973</v>
       </c>
       <c r="E75" t="n">
-        <v>95.52115377</v>
+        <v>93.9909507</v>
       </c>
       <c r="F75" t="n">
-        <v>94.37359133</v>
+        <v>91.56608253</v>
       </c>
       <c r="G75" t="n">
-        <v>101.61806105</v>
+        <v>101.60257934</v>
       </c>
       <c r="H75" t="n">
-        <v>126.80106376</v>
+        <v>122.47667969</v>
       </c>
       <c r="I75" t="n">
-        <v>108.99243241</v>
+        <v>125.46365837</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>100.57984496</v>
+        <v>99.62470533</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>102.8779958</v>
+        <v>100.92825113</v>
       </c>
       <c r="E76" t="n">
-        <v>96.96888204</v>
+        <v>93.31720235</v>
       </c>
       <c r="F76" t="n">
-        <v>96.04307486</v>
+        <v>91.18153857999999</v>
       </c>
       <c r="G76" t="n">
-        <v>102.0882425</v>
+        <v>101.14084211</v>
       </c>
       <c r="H76" t="n">
-        <v>124.86658487</v>
+        <v>124.96198569</v>
       </c>
       <c r="I76" t="n">
-        <v>108.1968145</v>
+        <v>120.2093428</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>103.00881948</v>
+        <v>99.26778095</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>100.95796695</v>
+        <v>101.01653409</v>
       </c>
       <c r="E77" t="n">
-        <v>95.04511431</v>
+        <v>92.79193601999999</v>
       </c>
       <c r="F77" t="n">
-        <v>94.12956106</v>
+        <v>91.21531693999999</v>
       </c>
       <c r="G77" t="n">
-        <v>102.61965466</v>
+        <v>101.17568243</v>
       </c>
       <c r="H77" t="n">
-        <v>121.67122491</v>
+        <v>128.60991489</v>
       </c>
       <c r="I77" t="n">
-        <v>136.13698519</v>
+        <v>119.54565463</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>100.59794536</v>
+        <v>99.31498123999999</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>100.93178973</v>
+        <v>101.20060484</v>
       </c>
       <c r="E78" t="n">
-        <v>93.9909507</v>
+        <v>92.33337994</v>
       </c>
       <c r="F78" t="n">
-        <v>91.56608253</v>
+        <v>90.72560907</v>
       </c>
       <c r="G78" t="n">
-        <v>101.60257934</v>
+        <v>101.18720142</v>
       </c>
       <c r="H78" t="n">
-        <v>122.47667969</v>
+        <v>132.231296</v>
       </c>
       <c r="I78" t="n">
-        <v>125.46365837</v>
+        <v>118.5187245</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>99.62470533</v>
+        <v>99.52155379</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>100.92825113</v>
+        <v>101.43811661</v>
       </c>
       <c r="E79" t="n">
-        <v>93.31720235</v>
+        <v>92.05254431</v>
       </c>
       <c r="F79" t="n">
-        <v>91.18153857999999</v>
+        <v>90.05399283</v>
       </c>
       <c r="G79" t="n">
-        <v>101.14084211</v>
+        <v>101.20206308</v>
       </c>
       <c r="H79" t="n">
-        <v>124.96198569</v>
+        <v>135.64506364</v>
       </c>
       <c r="I79" t="n">
-        <v>120.2093428</v>
+        <v>117.56330205</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.26778095</v>
+        <v>99.76747097000001</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>101.01653409</v>
+        <v>101.68358157</v>
       </c>
       <c r="E80" t="n">
-        <v>92.79193601999999</v>
+        <v>92.10971616</v>
       </c>
       <c r="F80" t="n">
-        <v>91.21531693999999</v>
+        <v>89.89723805</v>
       </c>
       <c r="G80" t="n">
-        <v>101.17568243</v>
+        <v>101.0865345</v>
       </c>
       <c r="H80" t="n">
-        <v>128.60991489</v>
+        <v>136.06707434</v>
       </c>
       <c r="I80" t="n">
-        <v>119.54565463</v>
+        <v>114.83472556</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>99.31498123999999</v>
+        <v>100.0084499</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>101.20060484</v>
+        <v>101.87076948</v>
       </c>
       <c r="E81" t="n">
-        <v>92.33337994</v>
+        <v>92.67793311</v>
       </c>
       <c r="F81" t="n">
-        <v>90.72560907</v>
+        <v>90.69490484000001</v>
       </c>
       <c r="G81" t="n">
-        <v>101.18720142</v>
+        <v>101.11563192</v>
       </c>
       <c r="H81" t="n">
-        <v>132.231296</v>
+        <v>134.25441509</v>
       </c>
       <c r="I81" t="n">
-        <v>118.5187245</v>
+        <v>113.09324196</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>99.52155379</v>
+        <v>100.14665282</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>101.43811661</v>
+        <v>102.04831361</v>
       </c>
       <c r="E82" t="n">
-        <v>92.05254431</v>
+        <v>93.41727659</v>
       </c>
       <c r="F82" t="n">
-        <v>90.05399283</v>
+        <v>91.69407907</v>
       </c>
       <c r="G82" t="n">
-        <v>101.20206308</v>
+        <v>101.24804937</v>
       </c>
       <c r="H82" t="n">
-        <v>135.64506364</v>
+        <v>131.60051519</v>
       </c>
       <c r="I82" t="n">
-        <v>117.56330205</v>
+        <v>112.47342414</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>99.76747097000001</v>
+        <v>100.31337249</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>101.68358157</v>
+        <v>102.21034786</v>
       </c>
       <c r="E83" t="n">
-        <v>92.10971616</v>
+        <v>94.32201229</v>
       </c>
       <c r="F83" t="n">
-        <v>89.89723805</v>
+        <v>92.94467702</v>
       </c>
       <c r="G83" t="n">
-        <v>101.0865345</v>
+        <v>101.34608975</v>
       </c>
       <c r="H83" t="n">
-        <v>136.06707434</v>
+        <v>129.11187462</v>
       </c>
       <c r="I83" t="n">
-        <v>114.83472556</v>
+        <v>110.40953596</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.0084499</v>
+        <v>100.44938732</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>101.87076948</v>
+        <v>102.45795992</v>
       </c>
       <c r="E84" t="n">
-        <v>92.67793311</v>
+        <v>95.52115377</v>
       </c>
       <c r="F84" t="n">
-        <v>90.69490484000001</v>
+        <v>94.37359133</v>
       </c>
       <c r="G84" t="n">
-        <v>101.11563192</v>
+        <v>101.61806105</v>
       </c>
       <c r="H84" t="n">
-        <v>134.25441509</v>
+        <v>126.80106376</v>
       </c>
       <c r="I84" t="n">
-        <v>113.09324196</v>
+        <v>108.99243241</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100.14665282</v>
+        <v>100.57984496</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>102.04831361</v>
+        <v>102.8779958</v>
       </c>
       <c r="E85" t="n">
-        <v>93.41727659</v>
+        <v>96.96888204</v>
       </c>
       <c r="F85" t="n">
-        <v>91.69407907</v>
+        <v>96.04307486</v>
       </c>
       <c r="G85" t="n">
-        <v>101.24804937</v>
+        <v>102.0882425</v>
       </c>
       <c r="H85" t="n">
-        <v>131.60051519</v>
+        <v>124.86658487</v>
       </c>
       <c r="I85" t="n">
-        <v>112.47342414</v>
+        <v>108.1968145</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>106.1</v>
+        <v>100.86531459</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>106.3</v>
+        <v>107.28080371</v>
       </c>
       <c r="E86" t="n">
-        <v>130.4</v>
+        <v>113.9731011</v>
       </c>
       <c r="F86" t="n">
-        <v>123.8</v>
+        <v>116.96703071</v>
       </c>
       <c r="G86" t="n">
-        <v>112.6</v>
+        <v>106.1784359</v>
       </c>
       <c r="H86" t="n">
-        <v>98.7</v>
+        <v>106.23784265</v>
       </c>
       <c r="I86" t="n">
-        <v>107</v>
+        <v>88.71064787</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>106.34257263</v>
+        <v>102.46142375</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>106.35308697</v>
+        <v>107.13977782</v>
       </c>
       <c r="E87" t="n">
-        <v>131.14490934</v>
+        <v>114.69607976</v>
       </c>
       <c r="F87" t="n">
-        <v>122.61705463</v>
+        <v>120.44855825</v>
       </c>
       <c r="G87" t="n">
-        <v>113.25441445</v>
+        <v>106.67518378</v>
       </c>
       <c r="H87" t="n">
-        <v>99.94431206</v>
+        <v>107.43240684</v>
       </c>
       <c r="I87" t="n">
-        <v>109.02828476</v>
+        <v>90.14634171</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>106.45867194</v>
+        <v>103.59751393</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>106.22768382</v>
+        <v>106.92474542</v>
       </c>
       <c r="E88" t="n">
-        <v>131.78927288</v>
+        <v>115.15222528</v>
       </c>
       <c r="F88" t="n">
-        <v>121.14593605</v>
+        <v>121.99481164</v>
       </c>
       <c r="G88" t="n">
-        <v>113.63174423</v>
+        <v>107.21595952</v>
       </c>
       <c r="H88" t="n">
-        <v>100.96994052</v>
+        <v>107.0849648</v>
       </c>
       <c r="I88" t="n">
-        <v>109.35667486</v>
+        <v>94.01767626</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>100.86531459</v>
+        <v>103.814516</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>107.28080371</v>
+        <v>106.68055762</v>
       </c>
       <c r="E89" t="n">
-        <v>113.9731011</v>
+        <v>115.67434881</v>
       </c>
       <c r="F89" t="n">
-        <v>116.96703071</v>
+        <v>122.72781661</v>
       </c>
       <c r="G89" t="n">
-        <v>106.1784359</v>
+        <v>107.32495535</v>
       </c>
       <c r="H89" t="n">
-        <v>106.23784265</v>
+        <v>103.70389988</v>
       </c>
       <c r="I89" t="n">
-        <v>88.71064787</v>
+        <v>96.11668636</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>102.46142375</v>
+        <v>103.98721718</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>107.13977782</v>
+        <v>106.48162058</v>
       </c>
       <c r="E90" t="n">
-        <v>114.69607976</v>
+        <v>117.80491604</v>
       </c>
       <c r="F90" t="n">
-        <v>120.44855825</v>
+        <v>124.22785027</v>
       </c>
       <c r="G90" t="n">
-        <v>106.67518378</v>
+        <v>107.75081256</v>
       </c>
       <c r="H90" t="n">
-        <v>107.43240684</v>
+        <v>100.45007857</v>
       </c>
       <c r="I90" t="n">
-        <v>90.14634171</v>
+        <v>96.60691619000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>103.59751393</v>
+        <v>104.33397793</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>106.92474542</v>
+        <v>106.36408313</v>
       </c>
       <c r="E91" t="n">
-        <v>115.15222528</v>
+        <v>120.81982253</v>
       </c>
       <c r="F91" t="n">
-        <v>121.99481164</v>
+        <v>125.73088713</v>
       </c>
       <c r="G91" t="n">
-        <v>107.21595952</v>
+        <v>108.60064455</v>
       </c>
       <c r="H91" t="n">
-        <v>107.0849648</v>
+        <v>97.61721921</v>
       </c>
       <c r="I91" t="n">
-        <v>94.01767626</v>
+        <v>97.9837436</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>103.814516</v>
+        <v>104.82333085</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>106.68055762</v>
+        <v>106.28846098</v>
       </c>
       <c r="E92" t="n">
-        <v>115.67434881</v>
+        <v>124.48264596</v>
       </c>
       <c r="F92" t="n">
-        <v>122.72781661</v>
+        <v>126.00178858</v>
       </c>
       <c r="G92" t="n">
-        <v>107.32495535</v>
+        <v>109.82682328</v>
       </c>
       <c r="H92" t="n">
-        <v>103.70389988</v>
+        <v>96.44590015</v>
       </c>
       <c r="I92" t="n">
-        <v>96.11668636</v>
+        <v>100.46933004</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>103.98721718</v>
+        <v>105.32918407</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>106.48162058</v>
+        <v>106.30048584</v>
       </c>
       <c r="E93" t="n">
-        <v>117.80491604</v>
+        <v>127.73629454</v>
       </c>
       <c r="F93" t="n">
-        <v>124.22785027</v>
+        <v>125.5669037</v>
       </c>
       <c r="G93" t="n">
-        <v>107.75081256</v>
+        <v>111.11792956</v>
       </c>
       <c r="H93" t="n">
-        <v>100.45007857</v>
+        <v>96.76653321000001</v>
       </c>
       <c r="I93" t="n">
-        <v>96.60691619000001</v>
+        <v>103.12316814</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>104.33397793</v>
+        <v>105.80484121</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>106.36408313</v>
+        <v>106.31309406</v>
       </c>
       <c r="E94" t="n">
-        <v>120.81982253</v>
+        <v>129.51492514</v>
       </c>
       <c r="F94" t="n">
-        <v>125.73088713</v>
+        <v>124.79021534</v>
       </c>
       <c r="G94" t="n">
-        <v>108.60064455</v>
+        <v>111.95590277</v>
       </c>
       <c r="H94" t="n">
-        <v>97.61721921</v>
+        <v>97.67215068</v>
       </c>
       <c r="I94" t="n">
-        <v>97.9837436</v>
+        <v>104.42974102</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>104.82333085</v>
+        <v>106.1</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>106.28846098</v>
+        <v>106.3</v>
       </c>
       <c r="E95" t="n">
-        <v>124.48264596</v>
+        <v>130.4</v>
       </c>
       <c r="F95" t="n">
-        <v>126.00178858</v>
+        <v>123.8</v>
       </c>
       <c r="G95" t="n">
-        <v>109.82682328</v>
+        <v>112.6</v>
       </c>
       <c r="H95" t="n">
-        <v>96.44590015</v>
+        <v>98.7</v>
       </c>
       <c r="I95" t="n">
-        <v>100.46933004</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>105.32918407</v>
+        <v>106.34257263</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>106.30048584</v>
+        <v>106.35308697</v>
       </c>
       <c r="E96" t="n">
-        <v>127.73629454</v>
+        <v>131.14490934</v>
       </c>
       <c r="F96" t="n">
-        <v>125.5669037</v>
+        <v>122.61705463</v>
       </c>
       <c r="G96" t="n">
-        <v>111.11792956</v>
+        <v>113.25441445</v>
       </c>
       <c r="H96" t="n">
-        <v>96.76653321000001</v>
+        <v>99.94431206</v>
       </c>
       <c r="I96" t="n">
-        <v>103.12316814</v>
+        <v>109.02828476</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>105.80484121</v>
+        <v>106.45867194</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>106.31309406</v>
+        <v>106.22768382</v>
       </c>
       <c r="E97" t="n">
-        <v>129.51492514</v>
+        <v>131.78927288</v>
       </c>
       <c r="F97" t="n">
-        <v>124.79021534</v>
+        <v>121.14593605</v>
       </c>
       <c r="G97" t="n">
-        <v>111.95590277</v>
+        <v>113.63174423</v>
       </c>
       <c r="H97" t="n">
-        <v>97.67215068</v>
+        <v>100.96994052</v>
       </c>
       <c r="I97" t="n">
-        <v>104.42974102</v>
+        <v>109.35667486</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>115.95467632</v>
+        <v>109.46752384</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>107.14115027</v>
+        <v>104.90579083</v>
       </c>
       <c r="E98" t="n">
-        <v>125.03886696</v>
+        <v>140.69513124</v>
       </c>
       <c r="F98" t="n">
-        <v>104.82827272</v>
+        <v>107.09513447</v>
       </c>
       <c r="G98" t="n">
-        <v>116.22867842</v>
+        <v>119.00312171</v>
       </c>
       <c r="H98" t="n">
-        <v>110.91164878</v>
+        <v>110.61895106</v>
       </c>
       <c r="I98" t="n">
-        <v>113.23015511</v>
+        <v>116.3055311</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>115.51715303</v>
+        <v>111.68296207</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>106.95062865</v>
+        <v>105.1</v>
       </c>
       <c r="E99" t="n">
-        <v>122.43875455</v>
+        <v>142.77040095</v>
       </c>
       <c r="F99" t="n">
-        <v>104.56917488</v>
+        <v>107.23958927</v>
       </c>
       <c r="G99" t="n">
-        <v>115.08370739</v>
+        <v>121.30669343</v>
       </c>
       <c r="H99" t="n">
-        <v>110.2118571</v>
+        <v>111.0150005</v>
       </c>
       <c r="I99" t="n">
-        <v>111.78867741</v>
+        <v>132.25771933</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>115.04994182</v>
+        <v>111.5207563</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>106.66503904</v>
+        <v>105.49761211</v>
       </c>
       <c r="E100" t="n">
-        <v>120.00058438</v>
+        <v>143.65615681</v>
       </c>
       <c r="F100" t="n">
-        <v>104.3170193</v>
+        <v>106.75099214</v>
       </c>
       <c r="G100" t="n">
-        <v>113.97778744</v>
+        <v>121.69514855</v>
       </c>
       <c r="H100" t="n">
-        <v>109.34221674</v>
+        <v>109.31167435</v>
       </c>
       <c r="I100" t="n">
-        <v>111.30171859</v>
+        <v>129.70938698</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>109.46752384</v>
+        <v>113.13945898</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>104.90579083</v>
+        <v>105.89068321</v>
       </c>
       <c r="E101" t="n">
-        <v>140.69513124</v>
+        <v>144.52590884</v>
       </c>
       <c r="F101" t="n">
-        <v>107.09513447</v>
+        <v>106.60669204</v>
       </c>
       <c r="G101" t="n">
-        <v>119.00312171</v>
+        <v>122.04620699</v>
       </c>
       <c r="H101" t="n">
-        <v>110.61895106</v>
+        <v>109.82299116</v>
       </c>
       <c r="I101" t="n">
-        <v>116.3055311</v>
+        <v>126.10827693</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>111.68296207</v>
+        <v>114.73553182</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>105.1</v>
+        <v>106.44805119</v>
       </c>
       <c r="E102" t="n">
-        <v>142.77040095</v>
+        <v>142.80209002</v>
       </c>
       <c r="F102" t="n">
-        <v>107.23958927</v>
+        <v>106.08972451</v>
       </c>
       <c r="G102" t="n">
-        <v>121.30669343</v>
+        <v>121.73507695</v>
       </c>
       <c r="H102" t="n">
-        <v>111.0150005</v>
+        <v>110.0194213</v>
       </c>
       <c r="I102" t="n">
-        <v>132.25771933</v>
+        <v>123.48412809</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>111.5207563</v>
+        <v>115.76161484</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>105.49761211</v>
+        <v>106.82594649</v>
       </c>
       <c r="E103" t="n">
-        <v>143.65615681</v>
+        <v>139.5464982</v>
       </c>
       <c r="F103" t="n">
-        <v>106.75099214</v>
+        <v>105.57104771</v>
       </c>
       <c r="G103" t="n">
-        <v>121.69514855</v>
+        <v>120.9651644</v>
       </c>
       <c r="H103" t="n">
-        <v>109.31167435</v>
+        <v>110.69432158</v>
       </c>
       <c r="I103" t="n">
-        <v>129.70938698</v>
+        <v>121.42261924</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>113.13945898</v>
+        <v>116.29737404</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>105.89068321</v>
+        <v>107.10118783</v>
       </c>
       <c r="E104" t="n">
-        <v>144.52590884</v>
+        <v>135.18582841</v>
       </c>
       <c r="F104" t="n">
-        <v>106.60669204</v>
+        <v>105.59681547</v>
       </c>
       <c r="G104" t="n">
-        <v>122.04620699</v>
+        <v>119.85835854</v>
       </c>
       <c r="H104" t="n">
-        <v>109.82299116</v>
+        <v>111.54224927</v>
       </c>
       <c r="I104" t="n">
-        <v>126.10827693</v>
+        <v>119.48045262</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>114.73553182</v>
+        <v>116.40521814</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>106.44805119</v>
+        <v>107.19574102</v>
       </c>
       <c r="E105" t="n">
-        <v>142.80209002</v>
+        <v>130.73815882</v>
       </c>
       <c r="F105" t="n">
-        <v>106.08972451</v>
+        <v>105.21002601</v>
       </c>
       <c r="G105" t="n">
-        <v>121.73507695</v>
+        <v>118.43510002</v>
       </c>
       <c r="H105" t="n">
-        <v>110.0194213</v>
+        <v>111.66958644</v>
       </c>
       <c r="I105" t="n">
-        <v>123.48412809</v>
+        <v>116.95305685</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>115.76161484</v>
+        <v>116.26517239</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>106.82594649</v>
+        <v>107.21245481</v>
       </c>
       <c r="E106" t="n">
-        <v>139.5464982</v>
+        <v>127.62207792</v>
       </c>
       <c r="F106" t="n">
-        <v>105.57104771</v>
+        <v>105.05195932</v>
       </c>
       <c r="G106" t="n">
-        <v>120.9651644</v>
+        <v>117.27906628</v>
       </c>
       <c r="H106" t="n">
-        <v>110.69432158</v>
+        <v>111.34553404</v>
       </c>
       <c r="I106" t="n">
-        <v>121.42261924</v>
+        <v>114.93312737</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>116.29737404</v>
+        <v>115.95467632</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>107.10118783</v>
+        <v>107.14115027</v>
       </c>
       <c r="E107" t="n">
-        <v>135.18582841</v>
+        <v>125.03886696</v>
       </c>
       <c r="F107" t="n">
-        <v>105.59681547</v>
+        <v>104.82827272</v>
       </c>
       <c r="G107" t="n">
-        <v>119.85835854</v>
+        <v>116.22867842</v>
       </c>
       <c r="H107" t="n">
-        <v>111.54224927</v>
+        <v>110.91164878</v>
       </c>
       <c r="I107" t="n">
-        <v>119.48045262</v>
+        <v>113.23015511</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>116.40521814</v>
+        <v>115.51715303</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>107.19574102</v>
+        <v>106.95062865</v>
       </c>
       <c r="E108" t="n">
-        <v>130.73815882</v>
+        <v>122.43875455</v>
       </c>
       <c r="F108" t="n">
-        <v>105.21002601</v>
+        <v>104.56917488</v>
       </c>
       <c r="G108" t="n">
-        <v>118.43510002</v>
+        <v>115.08370739</v>
       </c>
       <c r="H108" t="n">
-        <v>111.66958644</v>
+        <v>110.2118571</v>
       </c>
       <c r="I108" t="n">
-        <v>116.95305685</v>
+        <v>111.78867741</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>116.26517239</v>
+        <v>115.04994182</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>107.21245481</v>
+        <v>106.66503904</v>
       </c>
       <c r="E109" t="n">
-        <v>127.62207792</v>
+        <v>120.00058438</v>
       </c>
       <c r="F109" t="n">
-        <v>105.05195932</v>
+        <v>104.3170193</v>
       </c>
       <c r="G109" t="n">
-        <v>117.27906628</v>
+        <v>113.97778744</v>
       </c>
       <c r="H109" t="n">
-        <v>111.34553404</v>
+        <v>109.34221674</v>
       </c>
       <c r="I109" t="n">
-        <v>114.93312737</v>
+        <v>111.30171859</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>101.25686718</v>
+        <v>111.16817892</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>104.96052563</v>
+        <v>103.46666909</v>
       </c>
       <c r="E110" t="n">
-        <v>89.25736242000001</v>
+        <v>96.04423844</v>
       </c>
       <c r="F110" t="n">
-        <v>101.46753144</v>
+        <v>101.18534759</v>
       </c>
       <c r="G110" t="n">
-        <v>99.1787939</v>
+        <v>102.91653672</v>
       </c>
       <c r="H110" t="n">
-        <v>109.06829353</v>
+        <v>100.26570676</v>
       </c>
       <c r="I110" t="n">
-        <v>113.91559448</v>
+        <v>120.29125998</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>101.42169131</v>
+        <v>106.92354437</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>105.15373026</v>
+        <v>103.7948483</v>
       </c>
       <c r="E111" t="n">
-        <v>90.09604132</v>
+        <v>92.84772904</v>
       </c>
       <c r="F111" t="n">
-        <v>101.65236318</v>
+        <v>99.52184249</v>
       </c>
       <c r="G111" t="n">
-        <v>99.5721932</v>
+        <v>100.02734158</v>
       </c>
       <c r="H111" t="n">
-        <v>109.20660678</v>
+        <v>97.35075811</v>
       </c>
       <c r="I111" t="n">
-        <v>114.90331113</v>
+        <v>103.4072009</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>101.7321418</v>
+        <v>106.77447175</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>105.47499086</v>
+        <v>104.38990385</v>
       </c>
       <c r="E112" t="n">
-        <v>90.77523519</v>
+        <v>91.3560907</v>
       </c>
       <c r="F112" t="n">
-        <v>101.98558454</v>
+        <v>100.27690632</v>
       </c>
       <c r="G112" t="n">
-        <v>100.06330183</v>
+        <v>99.41123568</v>
       </c>
       <c r="H112" t="n">
-        <v>109.48586849</v>
+        <v>97.12557212999999</v>
       </c>
       <c r="I112" t="n">
-        <v>116.69545619</v>
+        <v>104.81728694</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>111.16817892</v>
+        <v>105.79427414</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>103.46666909</v>
+        <v>104.6654014</v>
       </c>
       <c r="E113" t="n">
-        <v>96.04423844</v>
+        <v>89.8274993</v>
       </c>
       <c r="F113" t="n">
-        <v>101.18534759</v>
+        <v>101.4267488</v>
       </c>
       <c r="G113" t="n">
-        <v>102.91653672</v>
+        <v>98.98562613</v>
       </c>
       <c r="H113" t="n">
-        <v>100.26570676</v>
+        <v>98.10080107</v>
       </c>
       <c r="I113" t="n">
-        <v>120.29125998</v>
+        <v>106.94360141</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>106.92354437</v>
+        <v>104.52225041</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>103.7948483</v>
+        <v>104.67613861</v>
       </c>
       <c r="E114" t="n">
-        <v>92.84772904</v>
+        <v>88.52113468</v>
       </c>
       <c r="F114" t="n">
-        <v>99.52184249</v>
+        <v>101.86169782</v>
       </c>
       <c r="G114" t="n">
-        <v>100.02734158</v>
+        <v>98.81664961</v>
       </c>
       <c r="H114" t="n">
-        <v>97.35075811</v>
+        <v>101.36310583</v>
       </c>
       <c r="I114" t="n">
-        <v>103.4072009</v>
+        <v>109.86275662</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>106.77447175</v>
+        <v>103.3907111</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>104.38990385</v>
+        <v>104.68539415</v>
       </c>
       <c r="E115" t="n">
-        <v>91.3560907</v>
+        <v>87.73609568000001</v>
       </c>
       <c r="F115" t="n">
-        <v>100.27690632</v>
+        <v>101.66773194</v>
       </c>
       <c r="G115" t="n">
-        <v>99.41123568</v>
+        <v>98.63136777</v>
       </c>
       <c r="H115" t="n">
-        <v>97.12557212999999</v>
+        <v>104.22615426</v>
       </c>
       <c r="I115" t="n">
-        <v>104.81728694</v>
+        <v>111.00841196</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>105.79427414</v>
+        <v>102.42841416</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>104.6654014</v>
+        <v>104.68372067</v>
       </c>
       <c r="E116" t="n">
-        <v>89.8274993</v>
+        <v>87.55375361</v>
       </c>
       <c r="F116" t="n">
-        <v>101.4267488</v>
+        <v>101.33802587</v>
       </c>
       <c r="G116" t="n">
-        <v>98.98562613</v>
+        <v>98.52381449000001</v>
       </c>
       <c r="H116" t="n">
-        <v>98.10080107</v>
+        <v>106.4810629</v>
       </c>
       <c r="I116" t="n">
-        <v>106.94360141</v>
+        <v>111.260875</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>104.52225041</v>
+        <v>101.75023753</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>104.67613861</v>
+        <v>104.71915863</v>
       </c>
       <c r="E117" t="n">
-        <v>88.52113468</v>
+        <v>87.91485428999999</v>
       </c>
       <c r="F117" t="n">
-        <v>101.86169782</v>
+        <v>101.37605731</v>
       </c>
       <c r="G117" t="n">
-        <v>98.81664961</v>
+        <v>98.65564662</v>
       </c>
       <c r="H117" t="n">
-        <v>101.36310583</v>
+        <v>107.73707753</v>
       </c>
       <c r="I117" t="n">
-        <v>109.86275662</v>
+        <v>112.36264513</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>103.3907111</v>
+        <v>101.33403676</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>104.68539415</v>
+        <v>104.81024839</v>
       </c>
       <c r="E118" t="n">
-        <v>87.73609568000001</v>
+        <v>88.49296801</v>
       </c>
       <c r="F118" t="n">
-        <v>101.66773194</v>
+        <v>101.3823727</v>
       </c>
       <c r="G118" t="n">
-        <v>98.63136777</v>
+        <v>98.90840308</v>
       </c>
       <c r="H118" t="n">
-        <v>104.22615426</v>
+        <v>108.62821243</v>
       </c>
       <c r="I118" t="n">
-        <v>111.00841196</v>
+        <v>113.69176797</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>102.42841416</v>
+        <v>101.25686718</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>104.68372067</v>
+        <v>104.96052563</v>
       </c>
       <c r="E119" t="n">
-        <v>87.55375361</v>
+        <v>89.25736242000001</v>
       </c>
       <c r="F119" t="n">
-        <v>101.33802587</v>
+        <v>101.46753144</v>
       </c>
       <c r="G119" t="n">
-        <v>98.52381449000001</v>
+        <v>99.1787939</v>
       </c>
       <c r="H119" t="n">
-        <v>106.4810629</v>
+        <v>109.06829353</v>
       </c>
       <c r="I119" t="n">
-        <v>111.260875</v>
+        <v>113.91559448</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>101.75023753</v>
+        <v>101.42169131</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>104.71915863</v>
+        <v>105.15373026</v>
       </c>
       <c r="E120" t="n">
-        <v>87.91485428999999</v>
+        <v>90.09604132</v>
       </c>
       <c r="F120" t="n">
-        <v>101.37605731</v>
+        <v>101.65236318</v>
       </c>
       <c r="G120" t="n">
-        <v>98.65564662</v>
+        <v>99.5721932</v>
       </c>
       <c r="H120" t="n">
-        <v>107.73707753</v>
+        <v>109.20660678</v>
       </c>
       <c r="I120" t="n">
-        <v>112.36264513</v>
+        <v>114.90331113</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>101.33403676</v>
+        <v>101.7321418</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>104.81024839</v>
+        <v>105.47499086</v>
       </c>
       <c r="E121" t="n">
-        <v>88.49296801</v>
+        <v>90.77523519</v>
       </c>
       <c r="F121" t="n">
-        <v>101.3823727</v>
+        <v>101.98558454</v>
       </c>
       <c r="G121" t="n">
-        <v>98.90840308</v>
+        <v>100.06330183</v>
       </c>
       <c r="H121" t="n">
-        <v>108.62821243</v>
+        <v>109.48586849</v>
       </c>
       <c r="I121" t="n">
-        <v>113.69176797</v>
+        <v>116.69545619</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>106.36942172</v>
+        <v>103.34887342</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>111.46045508</v>
+        <v>110.13911328</v>
       </c>
       <c r="E122" t="n">
-        <v>101.92555603</v>
+        <v>96.19965426</v>
       </c>
       <c r="F122" t="n">
-        <v>106.30987813</v>
+        <v>106.37092976</v>
       </c>
       <c r="G122" t="n">
-        <v>106.75918007</v>
+        <v>103.839008</v>
       </c>
       <c r="H122" t="n">
-        <v>115.31620399</v>
+        <v>111.30467016</v>
       </c>
       <c r="I122" t="n">
-        <v>123.71812624</v>
+        <v>118.30320611</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>106.70249394</v>
+        <v>106.02188264</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>111.88416548</v>
+        <v>109.94839553</v>
       </c>
       <c r="E123" t="n">
-        <v>102.77644335</v>
+        <v>97.41822036000001</v>
       </c>
       <c r="F123" t="n">
-        <v>107.25994931</v>
+        <v>107.7440577</v>
       </c>
       <c r="G123" t="n">
-        <v>107.24743524</v>
+        <v>105.06365817</v>
       </c>
       <c r="H123" t="n">
-        <v>116.30462564</v>
+        <v>115.37790596</v>
       </c>
       <c r="I123" t="n">
-        <v>123.66274302</v>
+        <v>123.4599629</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>106.93888445</v>
+        <v>105.98174289</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>112.27279412</v>
+        <v>109.79096759</v>
       </c>
       <c r="E124" t="n">
-        <v>103.4672328</v>
+        <v>97.61422340999999</v>
       </c>
       <c r="F124" t="n">
-        <v>108.17143346</v>
+        <v>107.2222397</v>
       </c>
       <c r="G124" t="n">
-        <v>107.49172691</v>
+        <v>105.17212189</v>
       </c>
       <c r="H124" t="n">
-        <v>117.45820358</v>
+        <v>117.42293933</v>
       </c>
       <c r="I124" t="n">
-        <v>121.25849579</v>
+        <v>122.75889437</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>103.34887342</v>
+        <v>105.59905882</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>110.13911328</v>
+        <v>110.06604015</v>
       </c>
       <c r="E125" t="n">
-        <v>96.19965426</v>
+        <v>97.83661368</v>
       </c>
       <c r="F125" t="n">
-        <v>106.37092976</v>
+        <v>105.87913722</v>
       </c>
       <c r="G125" t="n">
-        <v>103.839008</v>
+        <v>105.37729584</v>
       </c>
       <c r="H125" t="n">
-        <v>111.30467016</v>
+        <v>117.78190449</v>
       </c>
       <c r="I125" t="n">
-        <v>118.30320611</v>
+        <v>124.00030112</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>106.02188264</v>
+        <v>105.30792957</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>109.94839553</v>
+        <v>110.46674501</v>
       </c>
       <c r="E126" t="n">
-        <v>97.41822036000001</v>
+        <v>98.55178871</v>
       </c>
       <c r="F126" t="n">
-        <v>107.7440577</v>
+        <v>104.74108822</v>
       </c>
       <c r="G126" t="n">
-        <v>105.06365817</v>
+        <v>105.56139149</v>
       </c>
       <c r="H126" t="n">
-        <v>115.37790596</v>
+        <v>116.55132819</v>
       </c>
       <c r="I126" t="n">
-        <v>123.4599629</v>
+        <v>124.06496216</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>105.98174289</v>
+        <v>105.2338818</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>109.79096759</v>
+        <v>110.75379616</v>
       </c>
       <c r="E127" t="n">
-        <v>97.61422340999999</v>
+        <v>99.12047002</v>
       </c>
       <c r="F127" t="n">
-        <v>107.2222397</v>
+        <v>104.32390416</v>
       </c>
       <c r="G127" t="n">
-        <v>105.17212189</v>
+        <v>105.644544</v>
       </c>
       <c r="H127" t="n">
-        <v>117.42293933</v>
+        <v>115.65266996</v>
       </c>
       <c r="I127" t="n">
-        <v>122.75889437</v>
+        <v>123.24245763</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>105.59905882</v>
+        <v>105.37982209</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>110.06604015</v>
+        <v>110.95259255</v>
       </c>
       <c r="E128" t="n">
-        <v>97.83661368</v>
+        <v>99.86154727</v>
       </c>
       <c r="F128" t="n">
-        <v>105.87913722</v>
+        <v>104.77200131</v>
       </c>
       <c r="G128" t="n">
-        <v>105.37729584</v>
+        <v>105.85968429</v>
       </c>
       <c r="H128" t="n">
-        <v>117.78190449</v>
+        <v>114.59017026</v>
       </c>
       <c r="I128" t="n">
-        <v>124.00030112</v>
+        <v>123.28842968</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>105.30792957</v>
+        <v>105.63918118</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>110.46674501</v>
+        <v>111.13567327</v>
       </c>
       <c r="E129" t="n">
-        <v>98.55178871</v>
+        <v>100.61442184</v>
       </c>
       <c r="F129" t="n">
-        <v>104.74108822</v>
+        <v>105.34885005</v>
       </c>
       <c r="G129" t="n">
-        <v>105.56139149</v>
+        <v>106.11961496</v>
       </c>
       <c r="H129" t="n">
-        <v>116.55132819</v>
+        <v>114.59116524</v>
       </c>
       <c r="I129" t="n">
-        <v>124.06496216</v>
+        <v>122.97930708</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>105.2338818</v>
+        <v>106.0187134</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>110.75379616</v>
+        <v>111.28927467</v>
       </c>
       <c r="E130" t="n">
-        <v>99.12047002</v>
+        <v>101.25003504</v>
       </c>
       <c r="F130" t="n">
-        <v>104.32390416</v>
+        <v>105.86894181</v>
       </c>
       <c r="G130" t="n">
-        <v>105.644544</v>
+        <v>106.37145257</v>
       </c>
       <c r="H130" t="n">
-        <v>115.65266996</v>
+        <v>114.93380441</v>
       </c>
       <c r="I130" t="n">
-        <v>123.24245763</v>
+        <v>122.66510546</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>105.37982209</v>
+        <v>106.36942172</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>110.95259255</v>
+        <v>111.46045508</v>
       </c>
       <c r="E131" t="n">
-        <v>99.86154727</v>
+        <v>101.92555603</v>
       </c>
       <c r="F131" t="n">
-        <v>104.77200131</v>
+        <v>106.30987813</v>
       </c>
       <c r="G131" t="n">
-        <v>105.85968429</v>
+        <v>106.75918007</v>
       </c>
       <c r="H131" t="n">
-        <v>114.59017026</v>
+        <v>115.31620399</v>
       </c>
       <c r="I131" t="n">
-        <v>123.28842968</v>
+        <v>123.71812624</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>105.63918118</v>
+        <v>106.70249394</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>111.13567327</v>
+        <v>111.88416548</v>
       </c>
       <c r="E132" t="n">
-        <v>100.61442184</v>
+        <v>102.77644335</v>
       </c>
       <c r="F132" t="n">
-        <v>105.34885005</v>
+        <v>107.25994931</v>
       </c>
       <c r="G132" t="n">
-        <v>106.11961496</v>
+        <v>107.24743524</v>
       </c>
       <c r="H132" t="n">
-        <v>114.59116524</v>
+        <v>116.30462564</v>
       </c>
       <c r="I132" t="n">
-        <v>122.97930708</v>
+        <v>123.66274302</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>106.0187134</v>
+        <v>106.93888445</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>111.28927467</v>
+        <v>112.27279412</v>
       </c>
       <c r="E133" t="n">
-        <v>101.25003504</v>
+        <v>103.4672328</v>
       </c>
       <c r="F133" t="n">
-        <v>105.86894181</v>
+        <v>108.17143346</v>
       </c>
       <c r="G133" t="n">
-        <v>106.37145257</v>
+        <v>107.49172691</v>
       </c>
       <c r="H133" t="n">
-        <v>114.93380441</v>
+        <v>117.45820358</v>
       </c>
       <c r="I133" t="n">
-        <v>122.66510546</v>
+        <v>121.25849579</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>111.49377967</v>
+        <v>110.04125443</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>113.33707845</v>
+        <v>115.62226045</v>
       </c>
       <c r="E134" t="n">
-        <v>125.17455494</v>
+        <v>111.93825095</v>
       </c>
       <c r="F134" t="n">
-        <v>115.76927466</v>
+        <v>117.7400347</v>
       </c>
       <c r="G134" t="n">
-        <v>113.19044355</v>
+        <v>110.7052642</v>
       </c>
       <c r="H134" t="n">
-        <v>118.59172705</v>
+        <v>132.73248533</v>
       </c>
       <c r="I134" t="n">
-        <v>102.04445289</v>
+        <v>104.68677784</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>111.41631085</v>
+        <v>109.10106785</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>112.82434552</v>
+        <v>115.53023953</v>
       </c>
       <c r="E135" t="n">
-        <v>124.51067131</v>
+        <v>113.20462421</v>
       </c>
       <c r="F135" t="n">
-        <v>114.55871837</v>
+        <v>117.85569197</v>
       </c>
       <c r="G135" t="n">
-        <v>112.7594816</v>
+        <v>111.2372391</v>
       </c>
       <c r="H135" t="n">
-        <v>117.91585227</v>
+        <v>133.17984103</v>
       </c>
       <c r="I135" t="n">
-        <v>100.92047178</v>
+        <v>106.41367619</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>111.23551694</v>
+        <v>108.8</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>112.22040784</v>
+        <v>115.5</v>
       </c>
       <c r="E136" t="n">
-        <v>123.66938034</v>
+        <v>115.1</v>
       </c>
       <c r="F136" t="n">
-        <v>113.29733877</v>
+        <v>116.1</v>
       </c>
       <c r="G136" t="n">
-        <v>112.37796229</v>
+        <v>111.6</v>
       </c>
       <c r="H136" t="n">
-        <v>116.80038538</v>
+        <v>132.4</v>
       </c>
       <c r="I136" t="n">
-        <v>101.56945534</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>110.04125443</v>
+        <v>108.9</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>115.62226045</v>
+        <v>115.2</v>
       </c>
       <c r="E137" t="n">
-        <v>111.93825095</v>
+        <v>117.1</v>
       </c>
       <c r="F137" t="n">
-        <v>117.7400347</v>
+        <v>115.2</v>
       </c>
       <c r="G137" t="n">
-        <v>110.7052642</v>
+        <v>111.8</v>
       </c>
       <c r="H137" t="n">
-        <v>132.73248533</v>
+        <v>131.9</v>
       </c>
       <c r="I137" t="n">
-        <v>104.68677784</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>109.10106785</v>
+        <v>109.4</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>115.53023953</v>
+        <v>114.8</v>
       </c>
       <c r="E138" t="n">
-        <v>113.20462421</v>
+        <v>118.9</v>
       </c>
       <c r="F138" t="n">
-        <v>117.85569197</v>
+        <v>115.8</v>
       </c>
       <c r="G138" t="n">
-        <v>111.2372391</v>
+        <v>111.9</v>
       </c>
       <c r="H138" t="n">
-        <v>133.17984103</v>
+        <v>129.6</v>
       </c>
       <c r="I138" t="n">
-        <v>106.41367619</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>108.8</v>
+        <v>109.9</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>115.5</v>
+        <v>114.4</v>
       </c>
       <c r="E139" t="n">
-        <v>115.1</v>
+        <v>121.6</v>
       </c>
       <c r="F139" t="n">
-        <v>116.1</v>
+        <v>116.6</v>
       </c>
       <c r="G139" t="n">
-        <v>111.6</v>
+        <v>112.6</v>
       </c>
       <c r="H139" t="n">
-        <v>132.4</v>
+        <v>126.4</v>
       </c>
       <c r="I139" t="n">
-        <v>106.3</v>
+        <v>102.3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>108.9</v>
+        <v>110.63037113</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>115.2</v>
+        <v>114.09788489</v>
       </c>
       <c r="E140" t="n">
-        <v>117.1</v>
+        <v>123.64082597</v>
       </c>
       <c r="F140" t="n">
-        <v>115.2</v>
+        <v>116.85679487</v>
       </c>
       <c r="G140" t="n">
-        <v>111.8</v>
+        <v>113.0191788</v>
       </c>
       <c r="H140" t="n">
-        <v>131.9</v>
+        <v>123.34944904</v>
       </c>
       <c r="I140" t="n">
-        <v>103.1</v>
+        <v>102.99502386</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>109.4</v>
+        <v>111.1078709</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>114.8</v>
+        <v>113.83441861</v>
       </c>
       <c r="E141" t="n">
-        <v>118.9</v>
+        <v>124.55077287</v>
       </c>
       <c r="F141" t="n">
-        <v>115.8</v>
+        <v>116.6310215</v>
       </c>
       <c r="G141" t="n">
-        <v>111.9</v>
+        <v>113.1606469</v>
       </c>
       <c r="H141" t="n">
-        <v>129.6</v>
+        <v>120.96256545</v>
       </c>
       <c r="I141" t="n">
-        <v>101.4</v>
+        <v>102.71018213</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>109.9</v>
+        <v>111.41168717</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>114.4</v>
+        <v>113.58592127</v>
       </c>
       <c r="E142" t="n">
-        <v>121.6</v>
+        <v>125.0889638</v>
       </c>
       <c r="F142" t="n">
-        <v>116.6</v>
+        <v>116.24752868</v>
       </c>
       <c r="G142" t="n">
-        <v>112.6</v>
+        <v>113.27437892</v>
       </c>
       <c r="H142" t="n">
-        <v>126.4</v>
+        <v>119.36385699</v>
       </c>
       <c r="I142" t="n">
-        <v>102.3</v>
+        <v>102.81869595</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>110.63037113</v>
+        <v>111.49377967</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>114.09788489</v>
+        <v>113.33707845</v>
       </c>
       <c r="E143" t="n">
-        <v>123.64082597</v>
+        <v>125.17455494</v>
       </c>
       <c r="F143" t="n">
-        <v>116.85679487</v>
+        <v>115.76927466</v>
       </c>
       <c r="G143" t="n">
-        <v>113.0191788</v>
+        <v>113.19044355</v>
       </c>
       <c r="H143" t="n">
-        <v>123.34944904</v>
+        <v>118.59172705</v>
       </c>
       <c r="I143" t="n">
-        <v>102.99502386</v>
+        <v>102.04445289</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>111.1078709</v>
+        <v>111.41631085</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>113.83441861</v>
+        <v>112.82434552</v>
       </c>
       <c r="E144" t="n">
-        <v>124.55077287</v>
+        <v>124.51067131</v>
       </c>
       <c r="F144" t="n">
-        <v>116.6310215</v>
+        <v>114.55871837</v>
       </c>
       <c r="G144" t="n">
-        <v>113.1606469</v>
+        <v>112.7594816</v>
       </c>
       <c r="H144" t="n">
-        <v>120.96256545</v>
+        <v>117.91585227</v>
       </c>
       <c r="I144" t="n">
-        <v>102.71018213</v>
+        <v>100.92047178</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>111.41168717</v>
+        <v>111.23551694</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>113.58592127</v>
+        <v>112.22040784</v>
       </c>
       <c r="E145" t="n">
-        <v>125.0889638</v>
+        <v>123.66938034</v>
       </c>
       <c r="F145" t="n">
-        <v>116.24752868</v>
+        <v>113.29733877</v>
       </c>
       <c r="G145" t="n">
-        <v>113.27437892</v>
+        <v>112.37796229</v>
       </c>
       <c r="H145" t="n">
-        <v>119.36385699</v>
+        <v>116.80038538</v>
       </c>
       <c r="I145" t="n">
-        <v>102.81869595</v>
+        <v>101.56945534</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>109.30968443</v>
+        <v>112.41115566</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>103.53928834</v>
+        <v>105.58950893</v>
       </c>
       <c r="E146" t="n">
-        <v>100.55468589</v>
+        <v>117.41857427</v>
       </c>
       <c r="F146" t="n">
-        <v>94.94958947000001</v>
+        <v>97.12552898</v>
       </c>
       <c r="G146" t="n">
-        <v>104.1308945</v>
+        <v>109.88053704</v>
       </c>
       <c r="H146" t="n">
-        <v>99.50268861000001</v>
+        <v>103.03633435</v>
       </c>
       <c r="I146" t="n">
-        <v>116.9389077</v>
+        <v>122.27593038</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>109.05045455</v>
+        <v>109.81028477</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>103.56581144</v>
+        <v>105.25156351</v>
       </c>
       <c r="E147" t="n">
-        <v>100.19966191</v>
+        <v>114.31315596</v>
       </c>
       <c r="F147" t="n">
-        <v>95.73680729</v>
+        <v>92.99228642999999</v>
       </c>
       <c r="G147" t="n">
-        <v>103.97476874</v>
+        <v>107.67794517</v>
       </c>
       <c r="H147" t="n">
-        <v>99.23849549000001</v>
+        <v>98.3023171</v>
       </c>
       <c r="I147" t="n">
-        <v>116.47255069</v>
+        <v>113.57097962</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>108.96161738</v>
+        <v>110.35104894</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>103.61856246</v>
+        <v>104.68627478</v>
       </c>
       <c r="E148" t="n">
-        <v>100.23658419</v>
+        <v>112.87285434</v>
       </c>
       <c r="F148" t="n">
-        <v>96.79634772</v>
+        <v>93.06478877000001</v>
       </c>
       <c r="G148" t="n">
-        <v>103.99917322</v>
+        <v>107.32536138</v>
       </c>
       <c r="H148" t="n">
-        <v>98.9560618</v>
+        <v>96.82753202000001</v>
       </c>
       <c r="I148" t="n">
-        <v>116.48268555</v>
+        <v>115.58699653</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>112.41115566</v>
+        <v>110.97189739</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>105.58950893</v>
+        <v>104.28573633</v>
       </c>
       <c r="E149" t="n">
-        <v>117.41857427</v>
+        <v>111.27408784</v>
       </c>
       <c r="F149" t="n">
-        <v>97.12552898</v>
+        <v>93.23354097000001</v>
       </c>
       <c r="G149" t="n">
-        <v>109.88053704</v>
+        <v>107.02077275</v>
       </c>
       <c r="H149" t="n">
-        <v>103.03633435</v>
+        <v>95.16689126999999</v>
       </c>
       <c r="I149" t="n">
-        <v>122.27593038</v>
+        <v>118.37892596</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>109.81028477</v>
+        <v>111.25889921</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>105.25156351</v>
+        <v>103.99838307</v>
       </c>
       <c r="E150" t="n">
-        <v>114.31315596</v>
+        <v>109.56349499</v>
       </c>
       <c r="F150" t="n">
-        <v>92.99228642999999</v>
+        <v>92.51116764</v>
       </c>
       <c r="G150" t="n">
-        <v>107.67794517</v>
+        <v>106.67525945</v>
       </c>
       <c r="H150" t="n">
-        <v>98.3023171</v>
+        <v>94.75919225</v>
       </c>
       <c r="I150" t="n">
-        <v>113.57097962</v>
+        <v>120.62434041</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>110.35104894</v>
+        <v>111.16916503</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>104.68627478</v>
+        <v>103.79062428</v>
       </c>
       <c r="E151" t="n">
-        <v>112.87285434</v>
+        <v>107.07475139</v>
       </c>
       <c r="F151" t="n">
-        <v>93.06478877000001</v>
+        <v>93.13214072</v>
       </c>
       <c r="G151" t="n">
-        <v>107.32536138</v>
+        <v>105.9978995</v>
       </c>
       <c r="H151" t="n">
-        <v>96.82753202000001</v>
+        <v>95.6333575</v>
       </c>
       <c r="I151" t="n">
-        <v>115.58699653</v>
+        <v>119.65401148</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>110.97189739</v>
+        <v>110.73116298</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>104.28573633</v>
+        <v>103.62261503</v>
       </c>
       <c r="E152" t="n">
-        <v>111.27408784</v>
+        <v>104.57059718</v>
       </c>
       <c r="F152" t="n">
-        <v>93.23354097000001</v>
+        <v>93.17655435</v>
       </c>
       <c r="G152" t="n">
-        <v>107.02077275</v>
+        <v>105.2892832</v>
       </c>
       <c r="H152" t="n">
-        <v>95.16689126999999</v>
+        <v>97.03752435</v>
       </c>
       <c r="I152" t="n">
-        <v>118.37892596</v>
+        <v>118.38978009</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>111.25889921</v>
+        <v>110.19416546</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>103.99838307</v>
+        <v>103.53214338</v>
       </c>
       <c r="E153" t="n">
-        <v>109.56349499</v>
+        <v>102.72156538</v>
       </c>
       <c r="F153" t="n">
-        <v>92.51116764</v>
+        <v>93.65714896999999</v>
       </c>
       <c r="G153" t="n">
-        <v>106.67525945</v>
+        <v>104.8859455</v>
       </c>
       <c r="H153" t="n">
-        <v>94.75919225</v>
+        <v>98.32178838999999</v>
       </c>
       <c r="I153" t="n">
-        <v>120.62434041</v>
+        <v>119.21849593</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>111.16916503</v>
+        <v>109.66470897</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>103.79062428</v>
+        <v>103.53531222</v>
       </c>
       <c r="E154" t="n">
-        <v>107.07475139</v>
+        <v>101.39711694</v>
       </c>
       <c r="F154" t="n">
-        <v>93.13214072</v>
+        <v>94.3934055</v>
       </c>
       <c r="G154" t="n">
-        <v>105.9978995</v>
+        <v>104.48848915</v>
       </c>
       <c r="H154" t="n">
-        <v>95.6333575</v>
+        <v>99.13014058</v>
       </c>
       <c r="I154" t="n">
-        <v>119.65401148</v>
+        <v>118.53692712</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>110.73116298</v>
+        <v>109.30968443</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>103.62261503</v>
+        <v>103.53928834</v>
       </c>
       <c r="E155" t="n">
-        <v>104.57059718</v>
+        <v>100.55468589</v>
       </c>
       <c r="F155" t="n">
-        <v>93.17655435</v>
+        <v>94.94958947000001</v>
       </c>
       <c r="G155" t="n">
-        <v>105.2892832</v>
+        <v>104.1308945</v>
       </c>
       <c r="H155" t="n">
-        <v>97.03752435</v>
+        <v>99.50268861000001</v>
       </c>
       <c r="I155" t="n">
-        <v>118.38978009</v>
+        <v>116.9389077</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>110.19416546</v>
+        <v>109.05045455</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>103.53214338</v>
+        <v>103.56581144</v>
       </c>
       <c r="E156" t="n">
-        <v>102.72156538</v>
+        <v>100.19966191</v>
       </c>
       <c r="F156" t="n">
-        <v>93.65714896999999</v>
+        <v>95.73680729</v>
       </c>
       <c r="G156" t="n">
-        <v>104.8859455</v>
+        <v>103.97476874</v>
       </c>
       <c r="H156" t="n">
-        <v>98.32178838999999</v>
+        <v>99.23849549000001</v>
       </c>
       <c r="I156" t="n">
-        <v>119.21849593</v>
+        <v>116.47255069</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>109.66470897</v>
+        <v>108.96161738</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>103.53531222</v>
+        <v>103.61856246</v>
       </c>
       <c r="E157" t="n">
-        <v>101.39711694</v>
+        <v>100.23658419</v>
       </c>
       <c r="F157" t="n">
-        <v>94.3934055</v>
+        <v>96.79634772</v>
       </c>
       <c r="G157" t="n">
-        <v>104.48848915</v>
+        <v>103.99917322</v>
       </c>
       <c r="H157" t="n">
-        <v>99.13014058</v>
+        <v>98.9560618</v>
       </c>
       <c r="I157" t="n">
-        <v>118.53692712</v>
+        <v>116.48268555</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>104.46481394</v>
+        <v>105.00231846</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>104.99670296</v>
+        <v>104.91913388</v>
       </c>
       <c r="E158" t="n">
-        <v>103.88058896</v>
+        <v>101.40294314</v>
       </c>
       <c r="F158" t="n">
-        <v>106.78343761</v>
+        <v>111.54409502</v>
       </c>
       <c r="G158" t="n">
-        <v>104.92371649</v>
+        <v>103.35431989</v>
       </c>
       <c r="H158" t="n">
-        <v>107.49010212</v>
+        <v>93.84136837</v>
       </c>
       <c r="I158" t="n">
-        <v>109.46101445</v>
+        <v>104.43128556</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>104.56531622</v>
+        <v>107.56153471</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>104.92590534</v>
+        <v>105.0663962</v>
       </c>
       <c r="E159" t="n">
-        <v>104.05530818</v>
+        <v>103.14238705</v>
       </c>
       <c r="F159" t="n">
-        <v>105.94018284</v>
+        <v>115.81523436</v>
       </c>
       <c r="G159" t="n">
-        <v>105.01820476</v>
+        <v>104.78647673</v>
       </c>
       <c r="H159" t="n">
-        <v>107.89188676</v>
+        <v>98.68508097</v>
       </c>
       <c r="I159" t="n">
-        <v>110.60783154</v>
+        <v>107.87596572</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>104.59293847</v>
+        <v>106.33077998</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>104.84796733</v>
+        <v>105.17255669</v>
       </c>
       <c r="E160" t="n">
-        <v>104.02279113</v>
+        <v>102.84879371</v>
       </c>
       <c r="F160" t="n">
-        <v>105.01439471</v>
+        <v>115.32706165</v>
       </c>
       <c r="G160" t="n">
-        <v>104.93373118</v>
+        <v>104.24518754</v>
       </c>
       <c r="H160" t="n">
-        <v>108.53886682</v>
+        <v>100.91202216</v>
       </c>
       <c r="I160" t="n">
-        <v>110.07059522</v>
+        <v>102.20507145</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>105.00231846</v>
+        <v>105.63602092</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>104.91913388</v>
+        <v>105.24450144</v>
       </c>
       <c r="E161" t="n">
-        <v>101.40294314</v>
+        <v>102.23408225</v>
       </c>
       <c r="F161" t="n">
-        <v>111.54409502</v>
+        <v>114.54820459</v>
       </c>
       <c r="G161" t="n">
-        <v>103.35431989</v>
+        <v>104.22764434</v>
       </c>
       <c r="H161" t="n">
-        <v>93.84136837</v>
+        <v>102.19727157</v>
       </c>
       <c r="I161" t="n">
-        <v>104.43128556</v>
+        <v>103.3586394</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>107.56153471</v>
+        <v>105.06539079</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>105.0663962</v>
+        <v>105.27384034</v>
       </c>
       <c r="E162" t="n">
-        <v>103.14238705</v>
+        <v>101.86683961</v>
       </c>
       <c r="F162" t="n">
-        <v>115.81523436</v>
+        <v>113.95965122</v>
       </c>
       <c r="G162" t="n">
-        <v>104.78647673</v>
+        <v>104.09552434</v>
       </c>
       <c r="H162" t="n">
-        <v>98.68508097</v>
+        <v>103.40378874</v>
       </c>
       <c r="I162" t="n">
-        <v>107.87596572</v>
+        <v>102.87322188</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>106.33077998</v>
+        <v>104.61169192</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>105.17255669</v>
+        <v>105.25865917</v>
       </c>
       <c r="E163" t="n">
-        <v>102.84879371</v>
+        <v>102.2429915</v>
       </c>
       <c r="F163" t="n">
-        <v>115.32706165</v>
+        <v>111.57834044</v>
       </c>
       <c r="G163" t="n">
-        <v>104.24518754</v>
+        <v>104.25806372</v>
       </c>
       <c r="H163" t="n">
-        <v>100.91202216</v>
+        <v>104.92153015</v>
       </c>
       <c r="I163" t="n">
-        <v>102.20507145</v>
+        <v>104.08215786</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>105.63602092</v>
+        <v>104.28525351</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>105.24450144</v>
+        <v>105.24205986</v>
       </c>
       <c r="E164" t="n">
-        <v>102.23408225</v>
+        <v>102.68522769</v>
       </c>
       <c r="F164" t="n">
-        <v>114.54820459</v>
+        <v>109.98033805</v>
       </c>
       <c r="G164" t="n">
-        <v>104.22764434</v>
+        <v>104.40691885</v>
       </c>
       <c r="H164" t="n">
-        <v>102.19727157</v>
+        <v>105.67521945</v>
       </c>
       <c r="I164" t="n">
-        <v>103.3586394</v>
+        <v>105.25035155</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>105.06539079</v>
+        <v>104.24550368</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>105.27384034</v>
+        <v>105.19941233</v>
       </c>
       <c r="E165" t="n">
-        <v>101.86683961</v>
+        <v>103.21697542</v>
       </c>
       <c r="F165" t="n">
-        <v>113.95965122</v>
+        <v>108.64024302</v>
       </c>
       <c r="G165" t="n">
-        <v>104.09552434</v>
+        <v>104.51471039</v>
       </c>
       <c r="H165" t="n">
-        <v>103.40378874</v>
+        <v>106.16068096</v>
       </c>
       <c r="I165" t="n">
-        <v>102.87322188</v>
+        <v>105.65902899</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>104.61169192</v>
+        <v>104.3759152</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>105.25865917</v>
+        <v>105.08858124</v>
       </c>
       <c r="E166" t="n">
-        <v>102.2429915</v>
+        <v>103.62901405</v>
       </c>
       <c r="F166" t="n">
-        <v>111.57834044</v>
+        <v>107.71392761</v>
       </c>
       <c r="G166" t="n">
-        <v>104.25806372</v>
+        <v>104.73002274</v>
       </c>
       <c r="H166" t="n">
-        <v>104.92153015</v>
+        <v>107.05572567</v>
       </c>
       <c r="I166" t="n">
-        <v>104.08215786</v>
+        <v>107.28699702</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>104.28525351</v>
+        <v>104.46481394</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>105.24205986</v>
+        <v>104.99670296</v>
       </c>
       <c r="E167" t="n">
-        <v>102.68522769</v>
+        <v>103.88058896</v>
       </c>
       <c r="F167" t="n">
-        <v>109.98033805</v>
+        <v>106.78343761</v>
       </c>
       <c r="G167" t="n">
-        <v>104.40691885</v>
+        <v>104.92371649</v>
       </c>
       <c r="H167" t="n">
-        <v>105.67521945</v>
+        <v>107.49010212</v>
       </c>
       <c r="I167" t="n">
-        <v>105.25035155</v>
+        <v>109.46101445</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>104.24550368</v>
+        <v>104.56531622</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>105.19941233</v>
+        <v>104.92590534</v>
       </c>
       <c r="E168" t="n">
-        <v>103.21697542</v>
+        <v>104.05530818</v>
       </c>
       <c r="F168" t="n">
-        <v>108.64024302</v>
+        <v>105.94018284</v>
       </c>
       <c r="G168" t="n">
-        <v>104.51471039</v>
+        <v>105.01820476</v>
       </c>
       <c r="H168" t="n">
-        <v>106.16068096</v>
+        <v>107.89188676</v>
       </c>
       <c r="I168" t="n">
-        <v>105.65902899</v>
+        <v>110.60783154</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>104.3759152</v>
+        <v>104.59293847</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>105.08858124</v>
+        <v>104.84796733</v>
       </c>
       <c r="E169" t="n">
-        <v>103.62901405</v>
+        <v>104.02279113</v>
       </c>
       <c r="F169" t="n">
-        <v>107.71392761</v>
+        <v>105.01439471</v>
       </c>
       <c r="G169" t="n">
-        <v>104.73002274</v>
+        <v>104.93373118</v>
       </c>
       <c r="H169" t="n">
-        <v>107.05572567</v>
+        <v>108.53886682</v>
       </c>
       <c r="I169" t="n">
-        <v>107.28699702</v>
+        <v>110.07059522</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>104.21583159</v>
+        <v>105.47244785</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>103.11995225</v>
+        <v>103.14668289</v>
       </c>
       <c r="E170" t="n">
-        <v>99.77066121999999</v>
+        <v>99.52018330999999</v>
       </c>
       <c r="F170" t="n">
-        <v>109.38066446</v>
+        <v>96.10626636000001</v>
       </c>
       <c r="G170" t="n">
-        <v>102.65244266</v>
+        <v>103.01415931</v>
       </c>
       <c r="H170" t="n">
-        <v>118.18043978</v>
+        <v>122.25987552</v>
       </c>
       <c r="I170" t="n">
-        <v>98.22408163999999</v>
+        <v>102.19168465</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>104.08601265</v>
+        <v>104.60908883</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>103.10049858</v>
+        <v>102.92966723</v>
       </c>
       <c r="E171" t="n">
-        <v>99.78620107</v>
+        <v>97.67270435</v>
       </c>
       <c r="F171" t="n">
-        <v>110.0263515</v>
+        <v>94.79709736</v>
       </c>
       <c r="G171" t="n">
-        <v>102.59348603</v>
+        <v>102.3915485</v>
       </c>
       <c r="H171" t="n">
-        <v>117.70981391</v>
+        <v>120.66369989</v>
       </c>
       <c r="I171" t="n">
-        <v>97.96864893999999</v>
+        <v>102.88395002</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>103.98171622</v>
+        <v>105.19759777</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>103.07571603</v>
+        <v>102.89094622</v>
       </c>
       <c r="E172" t="n">
-        <v>99.73098942999999</v>
+        <v>97.40682098000001</v>
       </c>
       <c r="F172" t="n">
-        <v>110.33644065</v>
+        <v>96.40162989</v>
       </c>
       <c r="G172" t="n">
-        <v>102.58362659</v>
+        <v>102.6195909</v>
       </c>
       <c r="H172" t="n">
-        <v>117.10265058</v>
+        <v>119.28969256</v>
       </c>
       <c r="I172" t="n">
-        <v>98.67909527</v>
+        <v>106.0124356</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>105.47244785</v>
+        <v>105.07447863</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>103.14668289</v>
+        <v>102.89485021</v>
       </c>
       <c r="E173" t="n">
-        <v>99.52018330999999</v>
+        <v>97.6201784</v>
       </c>
       <c r="F173" t="n">
-        <v>96.10626636000001</v>
+        <v>98.9183396</v>
       </c>
       <c r="G173" t="n">
-        <v>103.01415931</v>
+        <v>102.3920357</v>
       </c>
       <c r="H173" t="n">
-        <v>122.25987552</v>
+        <v>118.96099065</v>
       </c>
       <c r="I173" t="n">
-        <v>102.19168465</v>
+        <v>102.66380433</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>104.60908883</v>
+        <v>104.92603126</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>102.92966723</v>
+        <v>102.91732508</v>
       </c>
       <c r="E174" t="n">
-        <v>97.67270435</v>
+        <v>98.64886411000001</v>
       </c>
       <c r="F174" t="n">
-        <v>94.79709736</v>
+        <v>102.48924293</v>
       </c>
       <c r="G174" t="n">
-        <v>102.3915485</v>
+        <v>102.64282096</v>
       </c>
       <c r="H174" t="n">
-        <v>120.66369989</v>
+        <v>118.9986264</v>
       </c>
       <c r="I174" t="n">
-        <v>102.88395002</v>
+        <v>101.64681223</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>105.19759777</v>
+        <v>104.75836884</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>102.89094622</v>
+        <v>102.99922295</v>
       </c>
       <c r="E175" t="n">
-        <v>97.40682098000001</v>
+        <v>99.14232921</v>
       </c>
       <c r="F175" t="n">
-        <v>96.40162989</v>
+        <v>104.26530913</v>
       </c>
       <c r="G175" t="n">
-        <v>102.6195909</v>
+        <v>102.74732124</v>
       </c>
       <c r="H175" t="n">
-        <v>119.28969256</v>
+        <v>118.87856483</v>
       </c>
       <c r="I175" t="n">
-        <v>106.0124356</v>
+        <v>101.13524352</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>105.07447863</v>
+        <v>104.67152218</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>102.89485021</v>
+        <v>103.0529067</v>
       </c>
       <c r="E176" t="n">
-        <v>97.6201784</v>
+        <v>99.38564765</v>
       </c>
       <c r="F176" t="n">
-        <v>98.9183396</v>
+        <v>106.40390135</v>
       </c>
       <c r="G176" t="n">
-        <v>102.3920357</v>
+        <v>102.83216889</v>
       </c>
       <c r="H176" t="n">
-        <v>118.96099065</v>
+        <v>118.89083285</v>
       </c>
       <c r="I176" t="n">
-        <v>102.66380433</v>
+        <v>100.90304205</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>104.92603126</v>
+        <v>104.54169637</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>102.91732508</v>
+        <v>103.08673159</v>
       </c>
       <c r="E177" t="n">
-        <v>98.64886411000001</v>
+        <v>99.56318376999999</v>
       </c>
       <c r="F177" t="n">
-        <v>102.48924293</v>
+        <v>108.00136628</v>
       </c>
       <c r="G177" t="n">
-        <v>102.64282096</v>
+        <v>102.81892357</v>
       </c>
       <c r="H177" t="n">
-        <v>118.9986264</v>
+        <v>119.04166035</v>
       </c>
       <c r="I177" t="n">
-        <v>101.64681223</v>
+        <v>99.97797169</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>104.75836884</v>
+        <v>104.33762322</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>102.99922295</v>
+        <v>103.11421763</v>
       </c>
       <c r="E178" t="n">
-        <v>99.14232921</v>
+        <v>99.6835222</v>
       </c>
       <c r="F178" t="n">
-        <v>104.26530913</v>
+        <v>108.60454543</v>
       </c>
       <c r="G178" t="n">
-        <v>102.74732124</v>
+        <v>102.71360915</v>
       </c>
       <c r="H178" t="n">
-        <v>118.87856483</v>
+        <v>118.65352767</v>
       </c>
       <c r="I178" t="n">
-        <v>101.13524352</v>
+        <v>98.81952609</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>104.67152218</v>
+        <v>104.21583159</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>103.0529067</v>
+        <v>103.11995225</v>
       </c>
       <c r="E179" t="n">
-        <v>99.38564765</v>
+        <v>99.77066121999999</v>
       </c>
       <c r="F179" t="n">
-        <v>106.40390135</v>
+        <v>109.38066446</v>
       </c>
       <c r="G179" t="n">
-        <v>102.83216889</v>
+        <v>102.65244266</v>
       </c>
       <c r="H179" t="n">
-        <v>118.89083285</v>
+        <v>118.18043978</v>
       </c>
       <c r="I179" t="n">
-        <v>100.90304205</v>
+        <v>98.22408163999999</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>104.54169637</v>
+        <v>104.08601265</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>103.08673159</v>
+        <v>103.10049858</v>
       </c>
       <c r="E180" t="n">
-        <v>99.56318376999999</v>
+        <v>99.78620107</v>
       </c>
       <c r="F180" t="n">
-        <v>108.00136628</v>
+        <v>110.0263515</v>
       </c>
       <c r="G180" t="n">
-        <v>102.81892357</v>
+        <v>102.59348603</v>
       </c>
       <c r="H180" t="n">
-        <v>119.04166035</v>
+        <v>117.70981391</v>
       </c>
       <c r="I180" t="n">
-        <v>99.97797169</v>
+        <v>97.96864893999999</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>104.33762322</v>
+        <v>103.98171622</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>103.11421763</v>
+        <v>103.07571603</v>
       </c>
       <c r="E181" t="n">
-        <v>99.6835222</v>
+        <v>99.73098942999999</v>
       </c>
       <c r="F181" t="n">
-        <v>108.60454543</v>
+        <v>110.33644065</v>
       </c>
       <c r="G181" t="n">
-        <v>102.71360915</v>
+        <v>102.58362659</v>
       </c>
       <c r="H181" t="n">
-        <v>118.65352767</v>
+        <v>117.10265058</v>
       </c>
       <c r="I181" t="n">
-        <v>98.81952609</v>
+        <v>98.67909527</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>102.17880611</v>
+        <v>100.25958167</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>101.84440514</v>
+        <v>102.54700733</v>
       </c>
       <c r="E182" t="n">
-        <v>105.25439592</v>
+        <v>98.72469359</v>
       </c>
       <c r="F182" t="n">
-        <v>94.04865106</v>
+        <v>107.85118536</v>
       </c>
       <c r="G182" t="n">
-        <v>102.41578964</v>
+        <v>100.8951207</v>
       </c>
       <c r="H182" t="n">
-        <v>97.64756388000001</v>
+        <v>104.33359002</v>
       </c>
       <c r="I182" t="n">
-        <v>106.55940838</v>
+        <v>99.28868341</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>102.18176083</v>
+        <v>101.1145068</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>101.74299963</v>
+        <v>102.53597695</v>
       </c>
       <c r="E183" t="n">
-        <v>105.39816251</v>
+        <v>99.88329065000001</v>
       </c>
       <c r="F183" t="n">
-        <v>93.30055628</v>
+        <v>109.63990252</v>
       </c>
       <c r="G183" t="n">
-        <v>102.40796373</v>
+        <v>101.57649597</v>
       </c>
       <c r="H183" t="n">
-        <v>97.22798032</v>
+        <v>105.02893681</v>
       </c>
       <c r="I183" t="n">
-        <v>106.70544165</v>
+        <v>101.87423957</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>102.15912487</v>
+        <v>101.57197947</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>101.65995103</v>
+        <v>102.48437144</v>
       </c>
       <c r="E184" t="n">
-        <v>105.51645838</v>
+        <v>101.02728755</v>
       </c>
       <c r="F184" t="n">
-        <v>92.92140401</v>
+        <v>108.49157094</v>
       </c>
       <c r="G184" t="n">
-        <v>102.43445576</v>
+        <v>101.89429355</v>
       </c>
       <c r="H184" t="n">
-        <v>96.89537786</v>
+        <v>106.008966</v>
       </c>
       <c r="I184" t="n">
-        <v>107.09934891</v>
+        <v>101.53195876</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>100.25958167</v>
+        <v>101.66648129</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>102.54700733</v>
+        <v>102.42500561</v>
       </c>
       <c r="E185" t="n">
-        <v>98.72469359</v>
+        <v>102.14242792</v>
       </c>
       <c r="F185" t="n">
-        <v>107.85118536</v>
+        <v>105.45055982</v>
       </c>
       <c r="G185" t="n">
-        <v>100.8951207</v>
+        <v>102.1602627</v>
       </c>
       <c r="H185" t="n">
-        <v>104.33359002</v>
+        <v>105.04327903</v>
       </c>
       <c r="I185" t="n">
-        <v>99.28868341</v>
+        <v>102.95755643</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>101.1145068</v>
+        <v>101.71814283</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>102.53597695</v>
+        <v>102.36117609</v>
       </c>
       <c r="E186" t="n">
-        <v>99.88329065000001</v>
+        <v>102.45288348</v>
       </c>
       <c r="F186" t="n">
-        <v>109.63990252</v>
+        <v>101.38890978</v>
       </c>
       <c r="G186" t="n">
-        <v>101.57649597</v>
+        <v>102.07442665</v>
       </c>
       <c r="H186" t="n">
-        <v>105.02893681</v>
+        <v>103.39327223</v>
       </c>
       <c r="I186" t="n">
-        <v>101.87423957</v>
+        <v>103.61873595</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>101.57197947</v>
+        <v>101.85677076</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>102.48437144</v>
+        <v>102.25559982</v>
       </c>
       <c r="E187" t="n">
-        <v>101.02728755</v>
+        <v>102.69553561</v>
       </c>
       <c r="F187" t="n">
-        <v>108.49157094</v>
+        <v>99.06404281</v>
       </c>
       <c r="G187" t="n">
-        <v>101.89429355</v>
+        <v>102.05487543</v>
       </c>
       <c r="H187" t="n">
-        <v>106.008966</v>
+        <v>101.59148183</v>
       </c>
       <c r="I187" t="n">
-        <v>101.53195876</v>
+        <v>104.75564651</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>101.66648129</v>
+        <v>101.98282853</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>102.42500561</v>
+        <v>102.16130177</v>
       </c>
       <c r="E188" t="n">
-        <v>102.14242792</v>
+        <v>103.53370678</v>
       </c>
       <c r="F188" t="n">
-        <v>105.45055982</v>
+        <v>96.99109362</v>
       </c>
       <c r="G188" t="n">
-        <v>102.1602627</v>
+        <v>102.17375448</v>
       </c>
       <c r="H188" t="n">
-        <v>105.04327903</v>
+        <v>100.35941543</v>
       </c>
       <c r="I188" t="n">
-        <v>102.95755643</v>
+        <v>105.40822354</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>101.71814283</v>
+        <v>102.09285793</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>102.36117609</v>
+        <v>102.06314559</v>
       </c>
       <c r="E189" t="n">
-        <v>102.45288348</v>
+        <v>104.40149102</v>
       </c>
       <c r="F189" t="n">
-        <v>101.38890978</v>
+        <v>95.79536883</v>
       </c>
       <c r="G189" t="n">
-        <v>102.07442665</v>
+        <v>102.38657476</v>
       </c>
       <c r="H189" t="n">
-        <v>103.39327223</v>
+        <v>99.40559076</v>
       </c>
       <c r="I189" t="n">
-        <v>103.61873595</v>
+        <v>106.53795494</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>101.85677076</v>
+        <v>102.14331665</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>102.25559982</v>
+        <v>101.94626957</v>
       </c>
       <c r="E190" t="n">
-        <v>102.69553561</v>
+        <v>104.93497681</v>
       </c>
       <c r="F190" t="n">
-        <v>99.06404281</v>
+        <v>95.00505957</v>
       </c>
       <c r="G190" t="n">
-        <v>102.05487543</v>
+        <v>102.4437065</v>
       </c>
       <c r="H190" t="n">
-        <v>101.59148183</v>
+        <v>98.33540704000001</v>
       </c>
       <c r="I190" t="n">
-        <v>104.75564651</v>
+        <v>106.85412504</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>101.98282853</v>
+        <v>102.17880611</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>102.16130177</v>
+        <v>101.84440514</v>
       </c>
       <c r="E191" t="n">
-        <v>103.53370678</v>
+        <v>105.25439592</v>
       </c>
       <c r="F191" t="n">
-        <v>96.99109362</v>
+        <v>94.04865106</v>
       </c>
       <c r="G191" t="n">
-        <v>102.17375448</v>
+        <v>102.41578964</v>
       </c>
       <c r="H191" t="n">
-        <v>100.35941543</v>
+        <v>97.64756388000001</v>
       </c>
       <c r="I191" t="n">
-        <v>105.40822354</v>
+        <v>106.55940838</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>102.09285793</v>
+        <v>102.18176083</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>102.06314559</v>
+        <v>101.74299963</v>
       </c>
       <c r="E192" t="n">
-        <v>104.40149102</v>
+        <v>105.39816251</v>
       </c>
       <c r="F192" t="n">
-        <v>95.79536883</v>
+        <v>93.30055628</v>
       </c>
       <c r="G192" t="n">
-        <v>102.38657476</v>
+        <v>102.40796373</v>
       </c>
       <c r="H192" t="n">
-        <v>99.40559076</v>
+        <v>97.22798032</v>
       </c>
       <c r="I192" t="n">
-        <v>106.53795494</v>
+        <v>106.70544165</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>102.14331665</v>
+        <v>102.15912487</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>101.94626957</v>
+        <v>101.65995103</v>
       </c>
       <c r="E193" t="n">
-        <v>104.93497681</v>
+        <v>105.51645838</v>
       </c>
       <c r="F193" t="n">
-        <v>95.00505957</v>
+        <v>92.92140401</v>
       </c>
       <c r="G193" t="n">
-        <v>102.4437065</v>
+        <v>102.43445576</v>
       </c>
       <c r="H193" t="n">
-        <v>98.33540704000001</v>
+        <v>96.89537786</v>
       </c>
       <c r="I193" t="n">
-        <v>106.85412504</v>
+        <v>107.09934891</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>103.3009404</v>
+        <v>102.25531025</v>
       </c>
       <c r="C194" t="n">
-        <v>113.8839249</v>
+        <v>112.15099816</v>
       </c>
       <c r="D194" t="n">
-        <v>100.334983899999</v>
+        <v>100.56692775</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>96.88199229</v>
+        <v>96.88355967</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>96.24854503</v>
+        <v>93.2591805</v>
       </c>
       <c r="I194" t="n">
-        <v>112.382000599999</v>
+        <v>113.23430773</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>103.3181533</v>
+        <v>102.61640487</v>
       </c>
       <c r="C195" t="n">
-        <v>112.9548113</v>
+        <v>114.88372759</v>
       </c>
       <c r="D195" t="n">
-        <v>100.3759797</v>
+        <v>100.47610291</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
-        <v>96.93896143000001</v>
+        <v>96.88837281000001</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>96.88619452</v>
+        <v>92.62833354</v>
       </c>
       <c r="I195" t="n">
-        <v>112.7633644</v>
+        <v>121.55330962</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>103.2694109</v>
+        <v>102.20076089</v>
       </c>
       <c r="C196" t="n">
-        <v>112.2239426</v>
+        <v>116.27420553</v>
       </c>
       <c r="D196" t="n">
-        <v>100.4303258</v>
+        <v>100.42167967</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>96.75448994</v>
+        <v>95.97133253</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>97.34655229000001</v>
+        <v>91.40801413</v>
       </c>
       <c r="I196" t="n">
-        <v>111.9896994</v>
+        <v>125.83174937</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>102.25531025</v>
+        <v>102.32946213</v>
       </c>
       <c r="C197" t="n">
-        <v>112.15099816</v>
+        <v>117.89617366</v>
       </c>
       <c r="D197" t="n">
-        <v>100.56692775</v>
+        <v>100.36434667</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>96.88355967</v>
+        <v>96.52688082</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>93.2591805</v>
+        <v>91.24628872</v>
       </c>
       <c r="I197" t="n">
-        <v>113.23430773</v>
+        <v>125.1697978</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>102.61640487</v>
+        <v>102.54950327</v>
       </c>
       <c r="C198" t="n">
-        <v>114.88372759</v>
+        <v>119.03002423</v>
       </c>
       <c r="D198" t="n">
-        <v>100.47610291</v>
+        <v>100.37025927</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>96.88837281000001</v>
+        <v>97.13050364999999</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>92.62833354</v>
+        <v>91.29919388</v>
       </c>
       <c r="I198" t="n">
-        <v>121.55330962</v>
+        <v>121.8288203</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>102.20076089</v>
+        <v>102.8381946</v>
       </c>
       <c r="C199" t="n">
-        <v>116.27420553</v>
+        <v>119.48384453</v>
       </c>
       <c r="D199" t="n">
-        <v>100.42167967</v>
+        <v>100.36914452</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>95.97133253</v>
+        <v>97.64663442</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>91.40801413</v>
+        <v>92.09130526</v>
       </c>
       <c r="I199" t="n">
-        <v>125.83174937</v>
+        <v>117.70974553</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>102.32946213</v>
+        <v>103.07553613</v>
       </c>
       <c r="C200" t="n">
-        <v>117.89617366</v>
+        <v>118.43176912</v>
       </c>
       <c r="D200" t="n">
-        <v>100.36434667</v>
+        <v>100.36475101</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
-        <v>96.52688082</v>
+        <v>97.71208855</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>91.24628872</v>
+        <v>93.11704469999999</v>
       </c>
       <c r="I200" t="n">
-        <v>125.1697978</v>
+        <v>114.87826493</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>102.54950327</v>
+        <v>103.15811212</v>
       </c>
       <c r="C201" t="n">
-        <v>119.03002423</v>
+        <v>116.5899413</v>
       </c>
       <c r="D201" t="n">
-        <v>100.37025927</v>
+        <v>100.34133885</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>97.13050364999999</v>
+        <v>97.02221163999999</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>91.29919388</v>
+        <v>93.88002337</v>
       </c>
       <c r="I201" t="n">
-        <v>121.8288203</v>
+        <v>112.67348673</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>102.8381946</v>
+        <v>103.292516699999</v>
       </c>
       <c r="C202" t="n">
-        <v>119.48384453</v>
+        <v>115.1146194</v>
       </c>
       <c r="D202" t="n">
-        <v>100.36914452</v>
+        <v>100.3270626</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>97.64663442</v>
+        <v>96.8460143599999</v>
       </c>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="n">
-        <v>92.09130526</v>
+        <v>95.20836199999989</v>
       </c>
       <c r="I202" t="n">
-        <v>117.70974553</v>
+        <v>112.2684306</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>103.07553613</v>
+        <v>103.3009404</v>
       </c>
       <c r="C203" t="n">
-        <v>118.43176912</v>
+        <v>113.8839249</v>
       </c>
       <c r="D203" t="n">
-        <v>100.36475101</v>
+        <v>100.334983899999</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>97.71208855</v>
+        <v>96.88199229</v>
       </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="n">
-        <v>93.11704469999999</v>
+        <v>96.24854503</v>
       </c>
       <c r="I203" t="n">
-        <v>114.87826493</v>
+        <v>112.382000599999</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>103.15811212</v>
+        <v>103.3181533</v>
       </c>
       <c r="C204" t="n">
-        <v>116.5899413</v>
+        <v>112.9548113</v>
       </c>
       <c r="D204" t="n">
-        <v>100.34133885</v>
+        <v>100.3759797</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>97.02221163999999</v>
+        <v>96.93896143000001</v>
       </c>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="n">
-        <v>93.88002337</v>
+        <v>96.88619452</v>
       </c>
       <c r="I204" t="n">
-        <v>112.67348673</v>
+        <v>112.7633644</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>103.292516699999</v>
+        <v>103.2694109</v>
       </c>
       <c r="C205" t="n">
-        <v>115.1146194</v>
+        <v>112.2239426</v>
       </c>
       <c r="D205" t="n">
-        <v>100.3270626</v>
+        <v>100.4303258</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>96.8460143599999</v>
+        <v>96.75448994</v>
       </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="n">
-        <v>95.20836199999989</v>
+        <v>97.34655229000001</v>
       </c>
       <c r="I205" t="n">
-        <v>112.2684306</v>
+        <v>111.9896994</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>103.7052718</v>
+        <v>105.2939729</v>
       </c>
       <c r="C206" t="n">
-        <v>93.37213892</v>
+        <v>105.5392766</v>
       </c>
       <c r="D206" t="n">
-        <v>101.6299207</v>
+        <v>101.4576375</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>92.47172852999999</v>
+        <v>89.61090638</v>
       </c>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="n">
-        <v>104.0088716</v>
+        <v>104.1930949</v>
       </c>
       <c r="I206" t="n">
-        <v>92.53441632000001</v>
+        <v>103.0621092</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>103.618569</v>
+        <v>103.24663126</v>
       </c>
       <c r="C207" t="n">
-        <v>93.38453014</v>
+        <v>102.2597415</v>
       </c>
       <c r="D207" t="n">
-        <v>101.6338744</v>
+        <v>101.42832805</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>93.68049963999999</v>
+        <v>86.4205664</v>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="n">
-        <v>103.8622028</v>
+        <v>102.6257278</v>
       </c>
       <c r="I207" t="n">
-        <v>92.39265767000001</v>
+        <v>87.60025921</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>103.6288967</v>
+        <v>103.4529867</v>
       </c>
       <c r="C208" t="n">
-        <v>93.45905200999999</v>
+        <v>100.6778539</v>
       </c>
       <c r="D208" t="n">
-        <v>101.6224876</v>
+        <v>101.469574</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>95.19837802000001</v>
+        <v>86.63943636</v>
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="n">
-        <v>104.0359902</v>
+        <v>102.9341563</v>
       </c>
       <c r="I208" t="n">
-        <v>92.32439290000001</v>
+        <v>82.63599790000001</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>105.2939729</v>
+        <v>103.8322539</v>
       </c>
       <c r="C209" t="n">
-        <v>105.5392766</v>
+        <v>99.03011174</v>
       </c>
       <c r="D209" t="n">
-        <v>101.4576375</v>
+        <v>101.4942779</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>89.61090638</v>
+        <v>86.81179659999999</v>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="n">
-        <v>104.1930949</v>
+        <v>104.1046279</v>
       </c>
       <c r="I209" t="n">
-        <v>103.0621092</v>
+        <v>81.63258102</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>103.24663126</v>
+        <v>104.1455579</v>
       </c>
       <c r="C210" t="n">
-        <v>102.2597415</v>
+        <v>97.28726853000001</v>
       </c>
       <c r="D210" t="n">
-        <v>101.42832805</v>
+        <v>101.5057222</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>86.4205664</v>
+        <v>86.23773679999999</v>
       </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
-        <v>102.6257278</v>
+        <v>105.9436029</v>
       </c>
       <c r="I210" t="n">
-        <v>87.60025921</v>
+        <v>83.48985458</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>103.4529867</v>
+        <v>104.1342276</v>
       </c>
       <c r="C211" t="n">
-        <v>100.6778539</v>
+        <v>95.54295118</v>
       </c>
       <c r="D211" t="n">
-        <v>101.469574</v>
+        <v>101.5204546</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>86.63943636</v>
+        <v>86.74233063</v>
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="n">
-        <v>102.9341563</v>
+        <v>106.6065732</v>
       </c>
       <c r="I211" t="n">
-        <v>82.63599790000001</v>
+        <v>86.07585493000001</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>103.8322539</v>
+        <v>104.0488415</v>
       </c>
       <c r="C212" t="n">
-        <v>99.03011174</v>
+        <v>94.43329948</v>
       </c>
       <c r="D212" t="n">
-        <v>101.4942779</v>
+        <v>101.5371937</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>86.81179659999999</v>
+        <v>87.67780196</v>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="n">
-        <v>104.1046279</v>
+        <v>106.0849075</v>
       </c>
       <c r="I212" t="n">
-        <v>81.63258102</v>
+        <v>88.57019501000001</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>104.1455579</v>
+        <v>103.9641879</v>
       </c>
       <c r="C213" t="n">
-        <v>97.28726853000001</v>
+        <v>93.81721715</v>
       </c>
       <c r="D213" t="n">
-        <v>101.5057222</v>
+        <v>101.5609658</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>86.23773679999999</v>
+        <v>89.70280138</v>
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="n">
-        <v>105.9436029</v>
+        <v>105.4925317</v>
       </c>
       <c r="I213" t="n">
-        <v>83.48985458</v>
+        <v>90.80592670999999</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>104.1342276</v>
+        <v>103.7619693</v>
       </c>
       <c r="C214" t="n">
-        <v>95.54295118</v>
+        <v>93.45798671999999</v>
       </c>
       <c r="D214" t="n">
-        <v>101.5204546</v>
+        <v>101.5991483</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>86.74233063</v>
+        <v>91.29881512999999</v>
       </c>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="n">
-        <v>106.6065732</v>
+        <v>104.5619344</v>
       </c>
       <c r="I214" t="n">
-        <v>86.07585493000001</v>
+        <v>91.7051515</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>104.0488415</v>
+        <v>103.7052718</v>
       </c>
       <c r="C215" t="n">
-        <v>94.43329948</v>
+        <v>93.37213892</v>
       </c>
       <c r="D215" t="n">
-        <v>101.5371937</v>
+        <v>101.6299207</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>87.67780196</v>
+        <v>92.47172852999999</v>
       </c>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="n">
-        <v>106.0849075</v>
+        <v>104.0088716</v>
       </c>
       <c r="I215" t="n">
-        <v>88.57019501000001</v>
+        <v>92.53441632000001</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>103.9641879</v>
+        <v>103.618569</v>
       </c>
       <c r="C216" t="n">
-        <v>93.81721715</v>
+        <v>93.38453014</v>
       </c>
       <c r="D216" t="n">
-        <v>101.5609658</v>
+        <v>101.6338744</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>89.70280138</v>
+        <v>93.68049963999999</v>
       </c>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="n">
-        <v>105.4925317</v>
+        <v>103.8622028</v>
       </c>
       <c r="I216" t="n">
-        <v>90.80592670999999</v>
+        <v>92.39265767000001</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>103.7619693</v>
+        <v>103.6288967</v>
       </c>
       <c r="C217" t="n">
-        <v>93.45798671999999</v>
+        <v>93.45905200999999</v>
       </c>
       <c r="D217" t="n">
-        <v>101.5991483</v>
+        <v>101.6224876</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>91.29881512999999</v>
+        <v>95.19837802000001</v>
       </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="n">
-        <v>104.5619344</v>
+        <v>104.0359902</v>
       </c>
       <c r="I217" t="n">
-        <v>91.7051515</v>
+        <v>92.32439290000001</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>102.75305547</v>
+        <v>102.4439934</v>
       </c>
       <c r="C218" t="n">
-        <v>93.61655235000001</v>
+        <v>92.72549185</v>
       </c>
       <c r="D218" t="n">
-        <v>100.86023638</v>
+        <v>101.1739431</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>114.95145925</v>
+        <v>115.1871821</v>
       </c>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="n">
-        <v>104.53347237</v>
+        <v>105.2173818</v>
       </c>
       <c r="I218" t="n">
-        <v>106.81257587</v>
+        <v>93.97077163</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>102.74006512</v>
+        <v>105.6825369</v>
       </c>
       <c r="C219" t="n">
-        <v>94.18654411</v>
+        <v>94.06298959</v>
       </c>
       <c r="D219" t="n">
-        <v>100.81830007</v>
+        <v>101.1295827</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>114.03351342</v>
+        <v>119.8852125</v>
       </c>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="n">
-        <v>105.45807926</v>
+        <v>107.2042909</v>
       </c>
       <c r="I219" t="n">
-        <v>106.32529637</v>
+        <v>104.6926404</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>102.71347623</v>
+        <v>105.7735115</v>
       </c>
       <c r="C220" t="n">
-        <v>94.64317658</v>
+        <v>93.43224253</v>
       </c>
       <c r="D220" t="n">
-        <v>100.78219952</v>
+        <v>101.1214354</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>112.66669675</v>
+        <v>119.4135203</v>
       </c>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="n">
-        <v>105.93345688</v>
+        <v>107.1155395</v>
       </c>
       <c r="I220" t="n">
-        <v>106.04417069</v>
+        <v>105.4451451</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>102.4439934</v>
+        <v>105.2417563</v>
       </c>
       <c r="C221" t="n">
-        <v>92.72549185</v>
+        <v>92.21811215</v>
       </c>
       <c r="D221" t="n">
-        <v>101.1739431</v>
+        <v>101.1239774</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>115.1871821</v>
+        <v>118.5656464</v>
       </c>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="n">
-        <v>105.2173818</v>
+        <v>106.1013116</v>
       </c>
       <c r="I221" t="n">
-        <v>93.97077163</v>
+        <v>105.8756409</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>105.6825369</v>
+        <v>104.5201044</v>
       </c>
       <c r="C222" t="n">
-        <v>94.06298959</v>
+        <v>91.36294567</v>
       </c>
       <c r="D222" t="n">
-        <v>101.1295827</v>
+        <v>101.1079679</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>119.8852125</v>
+        <v>119.4705391</v>
       </c>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="n">
-        <v>107.2042909</v>
+        <v>104.1427078</v>
       </c>
       <c r="I222" t="n">
-        <v>104.6926404</v>
+        <v>106.4448832</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>105.7735115</v>
+        <v>103.86720716</v>
       </c>
       <c r="C223" t="n">
-        <v>93.43224253</v>
+        <v>91.27950749</v>
       </c>
       <c r="D223" t="n">
-        <v>101.1214354</v>
+        <v>101.08064993</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>119.4135203</v>
+        <v>118.98026782</v>
       </c>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="n">
-        <v>107.1155395</v>
+        <v>102.67569529</v>
       </c>
       <c r="I223" t="n">
-        <v>105.4451451</v>
+        <v>106.74956815</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>105.2417563</v>
+        <v>103.36383093</v>
       </c>
       <c r="C224" t="n">
-        <v>92.21811215</v>
+        <v>91.57405084</v>
       </c>
       <c r="D224" t="n">
-        <v>101.1239774</v>
+        <v>101.03640414</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>118.5656464</v>
+        <v>118.08260288</v>
       </c>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="n">
-        <v>106.1013116</v>
+        <v>102.39447829</v>
       </c>
       <c r="I224" t="n">
-        <v>105.8756409</v>
+        <v>106.21272618</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>104.5201044</v>
+        <v>103.05798162</v>
       </c>
       <c r="C225" t="n">
-        <v>91.36294567</v>
+        <v>92.23039918000001</v>
       </c>
       <c r="D225" t="n">
-        <v>101.1079679</v>
+        <v>100.98120069</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>119.4705391</v>
+        <v>116.98728702</v>
       </c>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="n">
-        <v>104.1427078</v>
+        <v>102.79551798</v>
       </c>
       <c r="I225" t="n">
-        <v>106.4448832</v>
+        <v>105.82042242</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>103.86720716</v>
+        <v>102.8969533</v>
       </c>
       <c r="C226" t="n">
-        <v>91.27950749</v>
+        <v>92.95712817</v>
       </c>
       <c r="D226" t="n">
-        <v>101.08064993</v>
+        <v>100.92225768</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>118.98026782</v>
+        <v>115.71939904</v>
       </c>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="n">
-        <v>102.67569529</v>
+        <v>103.69412839</v>
       </c>
       <c r="I226" t="n">
-        <v>106.74956815</v>
+        <v>106.5521467</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>103.36383093</v>
+        <v>102.75305547</v>
       </c>
       <c r="C227" t="n">
-        <v>91.57405084</v>
+        <v>93.61655235000001</v>
       </c>
       <c r="D227" t="n">
-        <v>101.03640414</v>
+        <v>100.86023638</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="n">
-        <v>118.08260288</v>
+        <v>114.95145925</v>
       </c>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="n">
-        <v>102.39447829</v>
+        <v>104.53347237</v>
       </c>
       <c r="I227" t="n">
-        <v>106.21272618</v>
+        <v>106.81257587</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>103.05798162</v>
+        <v>102.74006512</v>
       </c>
       <c r="C228" t="n">
-        <v>92.23039918000001</v>
+        <v>94.18654411</v>
       </c>
       <c r="D228" t="n">
-        <v>100.98120069</v>
+        <v>100.81830007</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="n">
-        <v>116.98728702</v>
+        <v>114.03351342</v>
       </c>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="n">
-        <v>102.79551798</v>
+        <v>105.45807926</v>
       </c>
       <c r="I228" t="n">
-        <v>105.82042242</v>
+        <v>106.32529637</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>102.8969533</v>
+        <v>102.71347623</v>
       </c>
       <c r="C229" t="n">
-        <v>92.95712817</v>
+        <v>94.64317658</v>
       </c>
       <c r="D229" t="n">
-        <v>100.92225768</v>
+        <v>100.78219952</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>115.71939904</v>
+        <v>112.66669675</v>
       </c>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="n">
-        <v>103.69412839</v>
+        <v>105.93345688</v>
       </c>
       <c r="I229" t="n">
-        <v>106.5521467</v>
+        <v>106.04417069</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>100.57250036</v>
+        <v>101.89469706</v>
       </c>
       <c r="C230" t="n">
-        <v>122.40723852</v>
+        <v>98.91481455</v>
       </c>
       <c r="D230" t="n">
-        <v>100.42392382</v>
+        <v>100.40772349</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="n">
-        <v>104.6188769</v>
+        <v>99.76188791</v>
       </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="n">
-        <v>117.75963894</v>
+        <v>108.25336753</v>
       </c>
       <c r="I230" t="n">
-        <v>103.63754821</v>
+        <v>103.19799718</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>100.77528257</v>
+        <v>99.90324748</v>
       </c>
       <c r="C231" t="n">
-        <v>127.99988584</v>
+        <v>98.36434211</v>
       </c>
       <c r="D231" t="n">
-        <v>100.4381132</v>
+        <v>100.45271786</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="n">
-        <v>105.23728365</v>
+        <v>96.84491119</v>
       </c>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="n">
-        <v>115.54012286</v>
+        <v>106.78085501</v>
       </c>
       <c r="I231" t="n">
-        <v>103.63531281</v>
+        <v>102.10220163</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>100.89153224</v>
+        <v>99.25203102</v>
       </c>
       <c r="C232" t="n">
-        <v>131.92537644</v>
+        <v>100.30710644</v>
       </c>
       <c r="D232" t="n">
-        <v>100.45491512</v>
+        <v>100.42844896</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
-        <v>105.38455355</v>
+        <v>96.95658964</v>
       </c>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="n">
-        <v>113.54259678</v>
+        <v>107.28869986</v>
       </c>
       <c r="I232" t="n">
-        <v>104.18764481</v>
+        <v>106.3776408</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>101.89469706</v>
+        <v>99.16430513</v>
       </c>
       <c r="C233" t="n">
-        <v>98.91481455</v>
+        <v>102.95285269</v>
       </c>
       <c r="D233" t="n">
-        <v>100.40772349</v>
+        <v>100.40471931</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>99.76188791</v>
+        <v>98.47224752</v>
       </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="n">
-        <v>108.25336753</v>
+        <v>108.96219448</v>
       </c>
       <c r="I233" t="n">
-        <v>103.19799718</v>
+        <v>109.01098568</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>99.90324748</v>
+        <v>99.28184462999999</v>
       </c>
       <c r="C234" t="n">
-        <v>98.36434211</v>
+        <v>105.09365571</v>
       </c>
       <c r="D234" t="n">
-        <v>100.45271786</v>
+        <v>100.38870307</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="n">
-        <v>96.84491119</v>
+        <v>100.44606594</v>
       </c>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="n">
-        <v>106.78085501</v>
+        <v>112.78545238</v>
       </c>
       <c r="I234" t="n">
-        <v>102.10220163</v>
+        <v>109.85693143</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>99.25203102</v>
+        <v>99.38281229</v>
       </c>
       <c r="C235" t="n">
-        <v>100.30710644</v>
+        <v>106.86778385</v>
       </c>
       <c r="D235" t="n">
-        <v>100.42844896</v>
+        <v>100.39526858</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>96.95658964</v>
+        <v>101.4002651</v>
       </c>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="n">
-        <v>107.28869986</v>
+        <v>117.59173867</v>
       </c>
       <c r="I235" t="n">
-        <v>106.3776408</v>
+        <v>109.09049442</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>99.16430513</v>
+        <v>99.57408832</v>
       </c>
       <c r="C236" t="n">
-        <v>102.95285269</v>
+        <v>108.75889454</v>
       </c>
       <c r="D236" t="n">
-        <v>100.40471931</v>
+        <v>100.41021495</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="n">
-        <v>98.47224752</v>
+        <v>102.81514291</v>
       </c>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="n">
-        <v>108.96219448</v>
+        <v>120.62981033</v>
       </c>
       <c r="I236" t="n">
-        <v>109.01098568</v>
+        <v>108.67544166</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>99.28184462999999</v>
+        <v>99.89243925</v>
       </c>
       <c r="C237" t="n">
-        <v>105.09365571</v>
+        <v>111.97056322</v>
       </c>
       <c r="D237" t="n">
-        <v>100.38870307</v>
+        <v>100.41809386</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>100.44606594</v>
+        <v>103.03063799</v>
       </c>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="n">
-        <v>112.78545238</v>
+        <v>121.09345198</v>
       </c>
       <c r="I237" t="n">
-        <v>109.85693143</v>
+        <v>107.45853886</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>99.38281229</v>
+        <v>100.25984086</v>
       </c>
       <c r="C238" t="n">
-        <v>106.86778385</v>
+        <v>116.47988085</v>
       </c>
       <c r="D238" t="n">
-        <v>100.39526858</v>
+        <v>100.42359431</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="n">
-        <v>101.4002651</v>
+        <v>103.77920206</v>
       </c>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="n">
-        <v>117.59173867</v>
+        <v>119.65544954</v>
       </c>
       <c r="I238" t="n">
-        <v>109.09049442</v>
+        <v>105.24339098</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>99.57408832</v>
+        <v>100.57250036</v>
       </c>
       <c r="C239" t="n">
-        <v>108.75889454</v>
+        <v>122.40723852</v>
       </c>
       <c r="D239" t="n">
-        <v>100.41021495</v>
+        <v>100.42392382</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>102.81514291</v>
+        <v>104.6188769</v>
       </c>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="n">
-        <v>120.62981033</v>
+        <v>117.75963894</v>
       </c>
       <c r="I239" t="n">
-        <v>108.67544166</v>
+        <v>103.63754821</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>99.89243925</v>
+        <v>100.77528257</v>
       </c>
       <c r="C240" t="n">
-        <v>111.97056322</v>
+        <v>127.99988584</v>
       </c>
       <c r="D240" t="n">
-        <v>100.41809386</v>
+        <v>100.4381132</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="n">
-        <v>103.03063799</v>
+        <v>105.23728365</v>
       </c>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="n">
-        <v>121.09345198</v>
+        <v>115.54012286</v>
       </c>
       <c r="I240" t="n">
-        <v>107.45853886</v>
+        <v>103.63531281</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>100.25984086</v>
+        <v>100.89153224</v>
       </c>
       <c r="C241" t="n">
-        <v>116.47988085</v>
+        <v>131.92537644</v>
       </c>
       <c r="D241" t="n">
-        <v>100.42359431</v>
+        <v>100.45491512</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>103.77920206</v>
+        <v>105.38455355</v>
       </c>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="n">
-        <v>119.65544954</v>
+        <v>113.54259678</v>
       </c>
       <c r="I241" t="n">
-        <v>105.24339098</v>
+        <v>104.18764481</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>103.6</v>
+        <v>104.05809803</v>
       </c>
       <c r="C242" t="n">
-        <v>153.8</v>
+        <v>184.60109276</v>
       </c>
       <c r="D242" t="n">
-        <v>101.2</v>
+        <v>100.58456961</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>90.8</v>
+        <v>102.93493607</v>
       </c>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="n">
-        <v>85.8</v>
+        <v>95.06358040000001</v>
       </c>
       <c r="I242" t="n">
-        <v>107</v>
+        <v>115.90978772</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>103.4</v>
+        <v>103.66146582</v>
       </c>
       <c r="C243" t="n">
-        <v>145.5</v>
+        <v>190.04261838</v>
       </c>
       <c r="D243" t="n">
-        <v>101.2</v>
+        <v>100.59909185</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>89.90000000000001</v>
+        <v>102.01741403</v>
       </c>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="n">
-        <v>87</v>
+        <v>94.76469007999999</v>
       </c>
       <c r="I243" t="n">
-        <v>107.2</v>
+        <v>113.29164827</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>103.2</v>
+        <v>103.74204714</v>
       </c>
       <c r="C244" t="n">
-        <v>140.3</v>
+        <v>188.29264312</v>
       </c>
       <c r="D244" t="n">
-        <v>101.2</v>
+        <v>100.65425288</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>89.8</v>
+        <v>102.21222251</v>
       </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="n">
-        <v>88.2</v>
+        <v>94.56781121</v>
       </c>
       <c r="I244" t="n">
-        <v>107.2</v>
+        <v>108.96738877</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>104.05809803</v>
+        <v>103.5189</v>
       </c>
       <c r="C245" t="n">
-        <v>184.60109276</v>
+        <v>183.99441406</v>
       </c>
       <c r="D245" t="n">
-        <v>100.58456961</v>
+        <v>100.75565354</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>102.93493607</v>
+        <v>101.00887507</v>
       </c>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="n">
-        <v>95.06358040000001</v>
+        <v>93.16846787</v>
       </c>
       <c r="I245" t="n">
-        <v>115.90978772</v>
+        <v>105.66209003</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>103.66146582</v>
+        <v>103.64913106</v>
       </c>
       <c r="C246" t="n">
-        <v>190.04261838</v>
+        <v>179.36436806</v>
       </c>
       <c r="D246" t="n">
-        <v>100.59909185</v>
+        <v>100.90730452</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>102.01741403</v>
+        <v>98.00566331</v>
       </c>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="n">
-        <v>94.76469007999999</v>
+        <v>90.36168931</v>
       </c>
       <c r="I246" t="n">
-        <v>113.29164827</v>
+        <v>102.93869262</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>103.74204714</v>
+        <v>103.89447391</v>
       </c>
       <c r="C247" t="n">
-        <v>188.29264312</v>
+        <v>176.38443925</v>
       </c>
       <c r="D247" t="n">
-        <v>100.65425288</v>
+        <v>101.00297743</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>102.21222251</v>
+        <v>95.84892651</v>
       </c>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="n">
-        <v>94.56781121</v>
+        <v>86.69602403</v>
       </c>
       <c r="I247" t="n">
-        <v>108.96738877</v>
+        <v>102.88986679</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>103.5189</v>
+        <v>104.03185065</v>
       </c>
       <c r="C248" t="n">
-        <v>183.99441406</v>
+        <v>174.7264163</v>
       </c>
       <c r="D248" t="n">
-        <v>100.75565354</v>
+        <v>101.06200743</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>101.00887507</v>
+        <v>94.06594436</v>
       </c>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="n">
-        <v>93.16846787</v>
+        <v>84.45455545999999</v>
       </c>
       <c r="I248" t="n">
-        <v>105.66209003</v>
+        <v>103.507201</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>103.64913106</v>
+        <v>103.92914435</v>
       </c>
       <c r="C249" t="n">
-        <v>179.36436806</v>
+        <v>170.08526045</v>
       </c>
       <c r="D249" t="n">
-        <v>100.90730452</v>
+        <v>101.11868849</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>98.00566331</v>
+        <v>93.20262855</v>
       </c>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="n">
-        <v>90.36168931</v>
+        <v>83.83984175000001</v>
       </c>
       <c r="I249" t="n">
-        <v>102.93869262</v>
+        <v>104.58811454</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>103.89447391</v>
+        <v>103.74255678</v>
       </c>
       <c r="C250" t="n">
-        <v>176.38443925</v>
+        <v>163.03157477</v>
       </c>
       <c r="D250" t="n">
-        <v>101.00297743</v>
+        <v>101.1605465</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>95.84892651</v>
+        <v>91.87156902</v>
       </c>
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="n">
-        <v>86.69602403</v>
+        <v>84.57701924</v>
       </c>
       <c r="I250" t="n">
-        <v>102.88986679</v>
+        <v>105.86022573</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>104.03185065</v>
+        <v>103.6</v>
       </c>
       <c r="C251" t="n">
-        <v>174.7264163</v>
+        <v>153.8</v>
       </c>
       <c r="D251" t="n">
-        <v>101.06200743</v>
+        <v>101.2</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>94.06594436</v>
+        <v>90.8</v>
       </c>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="n">
-        <v>84.45455545999999</v>
+        <v>85.8</v>
       </c>
       <c r="I251" t="n">
-        <v>103.507201</v>
+        <v>107</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>103.92914435</v>
+        <v>103.4</v>
       </c>
       <c r="C252" t="n">
-        <v>170.08526045</v>
+        <v>145.5</v>
       </c>
       <c r="D252" t="n">
-        <v>101.11868849</v>
+        <v>101.2</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>93.20262855</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="n">
-        <v>83.83984175000001</v>
+        <v>87</v>
       </c>
       <c r="I252" t="n">
-        <v>104.58811454</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>103.74255678</v>
+        <v>103.2</v>
       </c>
       <c r="C253" t="n">
-        <v>163.03157477</v>
+        <v>140.3</v>
       </c>
       <c r="D253" t="n">
-        <v>101.1605465</v>
+        <v>101.2</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>91.87156902</v>
+        <v>89.8</v>
       </c>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="n">
-        <v>84.57701924</v>
+        <v>88.2</v>
       </c>
       <c r="I253" t="n">
-        <v>105.86022573</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>111.4</v>
+        <v>101.6</v>
       </c>
       <c r="C254" t="n">
-        <v>81</v>
+        <v>99.5</v>
       </c>
       <c r="D254" t="n">
-        <v>101.1</v>
+        <v>101.5</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>111.6</v>
+        <v>102.4</v>
       </c>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="n">
-        <v>102.4</v>
+        <v>101.4</v>
       </c>
       <c r="I254" t="n">
-        <v>102.7</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>111.2</v>
+        <v>104</v>
       </c>
       <c r="C255" t="n">
-        <v>80.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D255" t="n">
-        <v>101.1</v>
+        <v>101.6</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>112.3</v>
+        <v>103.8</v>
       </c>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="n">
-        <v>102.5</v>
+        <v>102.9</v>
       </c>
       <c r="I255" t="n">
-        <v>105.1</v>
+        <v>107.7</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>111</v>
+        <v>105.4</v>
       </c>
       <c r="C256" t="n">
-        <v>80.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D256" t="n">
-        <v>101.2</v>
+        <v>101.5</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>112.4</v>
+        <v>104.2</v>
       </c>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="n">
-        <v>102.7</v>
+        <v>103.1</v>
       </c>
       <c r="I256" t="n">
-        <v>105.6</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>101.6</v>
+        <v>107.2</v>
       </c>
       <c r="C257" t="n">
-        <v>99.5</v>
+        <v>92.2</v>
       </c>
       <c r="D257" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>102.4</v>
+        <v>105.2</v>
       </c>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="n">
-        <v>101.4</v>
+        <v>102.9</v>
       </c>
       <c r="I257" t="n">
-        <v>112.1</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>104</v>
+        <v>108.9</v>
       </c>
       <c r="C258" t="n">
-        <v>95.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D258" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>103.8</v>
+        <v>107.3</v>
       </c>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="n">
-        <v>102.9</v>
+        <v>102.5</v>
       </c>
       <c r="I258" t="n">
-        <v>107.7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>105.4</v>
+        <v>110.2</v>
       </c>
       <c r="C259" t="n">
-        <v>93.59999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="D259" t="n">
-        <v>101.5</v>
+        <v>101.1</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>104.2</v>
+        <v>109.2</v>
       </c>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="n">
-        <v>103.1</v>
+        <v>102.5</v>
       </c>
       <c r="I259" t="n">
-        <v>105.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>107.2</v>
+        <v>111.1</v>
       </c>
       <c r="C260" t="n">
-        <v>92.2</v>
+        <v>86.2</v>
       </c>
       <c r="D260" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>105.2</v>
+        <v>110.4</v>
       </c>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="n">
-        <v>102.9</v>
+        <v>102.7</v>
       </c>
       <c r="I260" t="n">
-        <v>103.9</v>
+        <v>102.4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>108.9</v>
+        <v>111.5</v>
       </c>
       <c r="C261" t="n">
-        <v>91.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="D261" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>107.3</v>
+        <v>111.1</v>
       </c>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="n">
-        <v>102.5</v>
+        <v>103</v>
       </c>
       <c r="I261" t="n">
-        <v>104</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>110.2</v>
+        <v>111.5</v>
       </c>
       <c r="C262" t="n">
-        <v>88.8</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D262" t="n">
         <v>101.1</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>109.2</v>
+        <v>111.4</v>
       </c>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="n">
-        <v>102.5</v>
+        <v>102.7</v>
       </c>
       <c r="I262" t="n">
-        <v>103.5</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>111.1</v>
+        <v>111.4</v>
       </c>
       <c r="C263" t="n">
-        <v>86.2</v>
+        <v>81</v>
       </c>
       <c r="D263" t="n">
         <v>101.1</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>110.4</v>
+        <v>111.6</v>
       </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="I263" t="n">
         <v>102.7</v>
-      </c>
-      <c r="I263" t="n">
-        <v>102.4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>111.5</v>
+        <v>111.2</v>
       </c>
       <c r="C264" t="n">
-        <v>84</v>
+        <v>80.7</v>
       </c>
       <c r="D264" t="n">
         <v>101.1</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>111.1</v>
+        <v>112.3</v>
       </c>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="n">
-        <v>103</v>
+        <v>102.5</v>
       </c>
       <c r="I264" t="n">
-        <v>101.9</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>111.5</v>
+        <v>111</v>
       </c>
       <c r="C265" t="n">
-        <v>82.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="D265" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>111.4</v>
+        <v>112.4</v>
       </c>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="n">
         <v>102.7</v>
       </c>
       <c r="I265" t="n">
-        <v>101.5</v>
+        <v>105.6</v>
       </c>
     </row>
   </sheetData>
